--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-VW-B2-ESS-Rural/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-VW-B2-ESS-Rural/pyControllerList/PV Controller.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mblonsky/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D4B76-3655-9F45-9346-395D6755A65F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640"/>
+    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1744,7 +1740,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1878,7 +1874,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1968,6 +1964,12 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F75B5"/>
+        <bgColor rgb="FF2F75B5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2004,7 +2006,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2069,6 +2071,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Accent1" xfId="11" builtinId="30"/>
@@ -2087,7 +2090,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -2100,49 +2103,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFFFFF"/>
         <name val="Courier New"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF2F75B5"/>
+          <bgColor rgb="FF2F75B5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2569,12 +2541,40 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="13.2"/>
         <color theme="1"/>
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2590,33 +2590,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:X533" insertRowShift="1" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:X533"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:X533" insertRowShift="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:X533" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="Controlled PV" dataDxfId="25"/>
-    <tableColumn id="2" name="Qcontrol" dataDxfId="1"/>
-    <tableColumn id="3" name="Pcontrol" dataDxfId="0"/>
-    <tableColumn id="4" name="pf" dataDxfId="24"/>
-    <tableColumn id="5" name="pfMin" dataDxfId="23"/>
-    <tableColumn id="6" name="pfMax" dataDxfId="22"/>
-    <tableColumn id="7" name="Pmin" dataDxfId="21"/>
-    <tableColumn id="8" name="Pmax" dataDxfId="20"/>
-    <tableColumn id="9" name="uMin" dataDxfId="19"/>
-    <tableColumn id="10" name="uDbMin" dataDxfId="18"/>
-    <tableColumn id="11" name="uDbMax" dataDxfId="17"/>
-    <tableColumn id="12" name="uMax" dataDxfId="16"/>
-    <tableColumn id="13" name="QlimPU" dataDxfId="15"/>
-    <tableColumn id="14" name="PFlim" dataDxfId="14"/>
-    <tableColumn id="23" name="Enable PF limit" dataDxfId="13"/>
-    <tableColumn id="21" name="uMinC" dataDxfId="12"/>
-    <tableColumn id="22" name="uMaxC" dataDxfId="11"/>
-    <tableColumn id="15" name="PminVW" dataDxfId="10"/>
-    <tableColumn id="16" name="VWtype" dataDxfId="9"/>
-    <tableColumn id="17" name="%PCutin" dataDxfId="8"/>
-    <tableColumn id="18" name="%PCutout" dataDxfId="7"/>
-    <tableColumn id="19" name="Efficiency" dataDxfId="6"/>
-    <tableColumn id="24" name="Priority" dataDxfId="5"/>
-    <tableColumn id="20" name="pDampCoef" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Controlled PV" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="pf" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pfMin" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pfMax" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pmin" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pmax" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="uMin" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="uDbMin" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="uDbMax" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="uMax" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QlimPU" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PFlim" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Enable PF limit" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="uMinC" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="uMaxC" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="PminVW" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VWtype" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="%PCutin" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="%PCutout" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Efficiency" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="pDampCoef" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2884,11 +2884,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y533"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3033,8 +3033,8 @@
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>18</v>
+      <c r="B3" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -3110,8 +3110,8 @@
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>18</v>
+      <c r="B4" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -3187,8 +3187,8 @@
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
+      <c r="B5" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>6</v>
@@ -3264,8 +3264,8 @@
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
+      <c r="B6" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
@@ -3341,8 +3341,8 @@
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>18</v>
+      <c r="B7" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>6</v>
@@ -3418,8 +3418,8 @@
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
+      <c r="B8" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>6</v>
@@ -3495,8 +3495,8 @@
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>18</v>
+      <c r="B9" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>6</v>
@@ -3572,8 +3572,8 @@
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
+      <c r="B10" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -3649,8 +3649,8 @@
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>18</v>
+      <c r="B11" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>6</v>
@@ -3726,8 +3726,8 @@
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>18</v>
+      <c r="B12" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>6</v>
@@ -3803,8 +3803,8 @@
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>18</v>
+      <c r="B13" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>6</v>
@@ -3880,8 +3880,8 @@
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
+      <c r="B14" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>6</v>
@@ -3957,8 +3957,8 @@
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>18</v>
+      <c r="B15" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>6</v>
@@ -4034,8 +4034,8 @@
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>18</v>
+      <c r="B16" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>6</v>
@@ -4111,8 +4111,8 @@
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>18</v>
+      <c r="B17" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>6</v>
@@ -4188,8 +4188,8 @@
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>18</v>
+      <c r="B18" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>6</v>
@@ -4265,8 +4265,8 @@
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>18</v>
+      <c r="B19" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>6</v>
@@ -4342,8 +4342,8 @@
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>18</v>
+      <c r="B20" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>6</v>
@@ -4419,8 +4419,8 @@
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>18</v>
+      <c r="B21" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>6</v>
@@ -4496,8 +4496,8 @@
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>18</v>
+      <c r="B22" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>6</v>
@@ -4573,8 +4573,8 @@
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>18</v>
+      <c r="B23" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>6</v>
@@ -4650,8 +4650,8 @@
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>18</v>
+      <c r="B24" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>6</v>
@@ -4727,8 +4727,8 @@
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>18</v>
+      <c r="B25" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>6</v>
@@ -4804,8 +4804,8 @@
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>18</v>
+      <c r="B26" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>6</v>
@@ -4881,8 +4881,8 @@
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>18</v>
+      <c r="B27" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>6</v>
@@ -4958,8 +4958,8 @@
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>18</v>
+      <c r="B28" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>6</v>
@@ -5035,8 +5035,8 @@
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>18</v>
+      <c r="B29" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>6</v>
@@ -5112,8 +5112,8 @@
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>18</v>
+      <c r="B30" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>6</v>
@@ -5189,8 +5189,8 @@
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>18</v>
+      <c r="B31" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>6</v>
@@ -5266,8 +5266,8 @@
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>18</v>
+      <c r="B32" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>6</v>
@@ -5343,8 +5343,8 @@
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>18</v>
+      <c r="B33" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>6</v>
@@ -5420,8 +5420,8 @@
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>18</v>
+      <c r="B34" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>6</v>
@@ -5497,8 +5497,8 @@
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>18</v>
+      <c r="B35" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>6</v>
@@ -5574,8 +5574,8 @@
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>18</v>
+      <c r="B36" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>6</v>
@@ -5651,8 +5651,8 @@
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>18</v>
+      <c r="B37" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>6</v>
@@ -5728,8 +5728,8 @@
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>18</v>
+      <c r="B38" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>6</v>
@@ -5805,8 +5805,8 @@
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>18</v>
+      <c r="B39" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>6</v>
@@ -5882,8 +5882,8 @@
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>18</v>
+      <c r="B40" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>6</v>
@@ -5959,8 +5959,8 @@
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>18</v>
+      <c r="B41" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>6</v>
@@ -6036,8 +6036,8 @@
       <c r="A42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>18</v>
+      <c r="B42" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>6</v>
@@ -6113,8 +6113,8 @@
       <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>18</v>
+      <c r="B43" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>6</v>
@@ -6190,8 +6190,8 @@
       <c r="A44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>18</v>
+      <c r="B44" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>6</v>
@@ -6267,8 +6267,8 @@
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>18</v>
+      <c r="B45" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>6</v>
@@ -6344,8 +6344,8 @@
       <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>18</v>
+      <c r="B46" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>6</v>
@@ -6421,8 +6421,8 @@
       <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>18</v>
+      <c r="B47" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>6</v>
@@ -6498,8 +6498,8 @@
       <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>18</v>
+      <c r="B48" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>6</v>
@@ -6575,8 +6575,8 @@
       <c r="A49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>18</v>
+      <c r="B49" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>6</v>
@@ -6652,8 +6652,8 @@
       <c r="A50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>18</v>
+      <c r="B50" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>6</v>
@@ -6729,8 +6729,8 @@
       <c r="A51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>18</v>
+      <c r="B51" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>6</v>
@@ -6806,8 +6806,8 @@
       <c r="A52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>18</v>
+      <c r="B52" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>6</v>
@@ -6883,8 +6883,8 @@
       <c r="A53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>18</v>
+      <c r="B53" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>6</v>
@@ -6960,8 +6960,8 @@
       <c r="A54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>18</v>
+      <c r="B54" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>6</v>
@@ -7037,8 +7037,8 @@
       <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>18</v>
+      <c r="B55" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>6</v>
@@ -7114,8 +7114,8 @@
       <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>18</v>
+      <c r="B56" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>6</v>
@@ -7191,8 +7191,8 @@
       <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>18</v>
+      <c r="B57" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>6</v>
@@ -7268,8 +7268,8 @@
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>18</v>
+      <c r="B58" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>6</v>
@@ -7345,8 +7345,8 @@
       <c r="A59" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>18</v>
+      <c r="B59" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>6</v>
@@ -7422,8 +7422,8 @@
       <c r="A60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>18</v>
+      <c r="B60" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>6</v>
@@ -7499,8 +7499,8 @@
       <c r="A61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>18</v>
+      <c r="B61" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>6</v>
@@ -7576,8 +7576,8 @@
       <c r="A62" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>18</v>
+      <c r="B62" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>6</v>
@@ -7653,8 +7653,8 @@
       <c r="A63" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>18</v>
+      <c r="B63" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>6</v>
@@ -7730,8 +7730,8 @@
       <c r="A64" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>18</v>
+      <c r="B64" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>6</v>
@@ -7807,8 +7807,8 @@
       <c r="A65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>18</v>
+      <c r="B65" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>6</v>
@@ -7884,8 +7884,8 @@
       <c r="A66" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>18</v>
+      <c r="B66" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>6</v>
@@ -7961,8 +7961,8 @@
       <c r="A67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>18</v>
+      <c r="B67" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>6</v>
@@ -8038,8 +8038,8 @@
       <c r="A68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>18</v>
+      <c r="B68" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>6</v>
@@ -8115,8 +8115,8 @@
       <c r="A69" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>18</v>
+      <c r="B69" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>6</v>
@@ -8192,8 +8192,8 @@
       <c r="A70" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>18</v>
+      <c r="B70" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>6</v>
@@ -8269,8 +8269,8 @@
       <c r="A71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>18</v>
+      <c r="B71" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>6</v>
@@ -8346,8 +8346,8 @@
       <c r="A72" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>18</v>
+      <c r="B72" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>6</v>
@@ -8423,8 +8423,8 @@
       <c r="A73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>18</v>
+      <c r="B73" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>6</v>
@@ -8500,8 +8500,8 @@
       <c r="A74" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>18</v>
+      <c r="B74" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>6</v>
@@ -8577,8 +8577,8 @@
       <c r="A75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>18</v>
+      <c r="B75" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>6</v>
@@ -8654,8 +8654,8 @@
       <c r="A76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>18</v>
+      <c r="B76" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>6</v>
@@ -8731,8 +8731,8 @@
       <c r="A77" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="11" t="s">
-        <v>18</v>
+      <c r="B77" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>6</v>
@@ -8808,8 +8808,8 @@
       <c r="A78" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>18</v>
+      <c r="B78" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>6</v>
@@ -8885,8 +8885,8 @@
       <c r="A79" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>18</v>
+      <c r="B79" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>6</v>
@@ -8962,8 +8962,8 @@
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>18</v>
+      <c r="B80" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>6</v>
@@ -9039,8 +9039,8 @@
       <c r="A81" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>18</v>
+      <c r="B81" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>6</v>
@@ -9116,8 +9116,8 @@
       <c r="A82" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>18</v>
+      <c r="B82" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>6</v>
@@ -9193,8 +9193,8 @@
       <c r="A83" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>18</v>
+      <c r="B83" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>6</v>
@@ -9270,8 +9270,8 @@
       <c r="A84" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>18</v>
+      <c r="B84" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>6</v>
@@ -9347,8 +9347,8 @@
       <c r="A85" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>18</v>
+      <c r="B85" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>6</v>
@@ -9424,8 +9424,8 @@
       <c r="A86" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>18</v>
+      <c r="B86" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>6</v>
@@ -9501,8 +9501,8 @@
       <c r="A87" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>18</v>
+      <c r="B87" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>6</v>
@@ -9578,8 +9578,8 @@
       <c r="A88" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>18</v>
+      <c r="B88" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>6</v>
@@ -9655,8 +9655,8 @@
       <c r="A89" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>18</v>
+      <c r="B89" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>6</v>
@@ -9732,8 +9732,8 @@
       <c r="A90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>18</v>
+      <c r="B90" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>6</v>
@@ -9809,8 +9809,8 @@
       <c r="A91" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>18</v>
+      <c r="B91" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>6</v>
@@ -9886,8 +9886,8 @@
       <c r="A92" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>18</v>
+      <c r="B92" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>6</v>
@@ -9963,8 +9963,8 @@
       <c r="A93" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>18</v>
+      <c r="B93" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C93" s="11" t="s">
         <v>6</v>
@@ -10040,8 +10040,8 @@
       <c r="A94" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>18</v>
+      <c r="B94" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>6</v>
@@ -10117,8 +10117,8 @@
       <c r="A95" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>18</v>
+      <c r="B95" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>6</v>
@@ -10194,8 +10194,8 @@
       <c r="A96" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>18</v>
+      <c r="B96" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>6</v>
@@ -10271,8 +10271,8 @@
       <c r="A97" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>18</v>
+      <c r="B97" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>6</v>
@@ -10348,8 +10348,8 @@
       <c r="A98" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>18</v>
+      <c r="B98" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>6</v>
@@ -10425,8 +10425,8 @@
       <c r="A99" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>18</v>
+      <c r="B99" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>6</v>
@@ -10502,8 +10502,8 @@
       <c r="A100" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>18</v>
+      <c r="B100" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>6</v>
@@ -10579,8 +10579,8 @@
       <c r="A101" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>18</v>
+      <c r="B101" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C101" s="11" t="s">
         <v>6</v>
@@ -10656,8 +10656,8 @@
       <c r="A102" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>18</v>
+      <c r="B102" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>6</v>
@@ -10733,8 +10733,8 @@
       <c r="A103" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>18</v>
+      <c r="B103" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>6</v>
@@ -10810,8 +10810,8 @@
       <c r="A104" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>18</v>
+      <c r="B104" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>6</v>
@@ -10887,8 +10887,8 @@
       <c r="A105" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>18</v>
+      <c r="B105" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>6</v>
@@ -10964,8 +10964,8 @@
       <c r="A106" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>18</v>
+      <c r="B106" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>6</v>
@@ -11041,8 +11041,8 @@
       <c r="A107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>18</v>
+      <c r="B107" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>6</v>
@@ -11118,8 +11118,8 @@
       <c r="A108" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>18</v>
+      <c r="B108" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>6</v>
@@ -11195,8 +11195,8 @@
       <c r="A109" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>18</v>
+      <c r="B109" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>6</v>
@@ -11272,8 +11272,8 @@
       <c r="A110" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>18</v>
+      <c r="B110" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C110" s="11" t="s">
         <v>6</v>
@@ -11349,8 +11349,8 @@
       <c r="A111" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>18</v>
+      <c r="B111" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>6</v>
@@ -11426,8 +11426,8 @@
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>18</v>
+      <c r="B112" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>6</v>
@@ -11503,8 +11503,8 @@
       <c r="A113" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>18</v>
+      <c r="B113" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>6</v>
@@ -11580,8 +11580,8 @@
       <c r="A114" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>18</v>
+      <c r="B114" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>6</v>
@@ -11657,8 +11657,8 @@
       <c r="A115" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>18</v>
+      <c r="B115" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>6</v>
@@ -11734,8 +11734,8 @@
       <c r="A116" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>18</v>
+      <c r="B116" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>6</v>
@@ -11811,8 +11811,8 @@
       <c r="A117" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>18</v>
+      <c r="B117" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>6</v>
@@ -11888,8 +11888,8 @@
       <c r="A118" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>18</v>
+      <c r="B118" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C118" s="11" t="s">
         <v>6</v>
@@ -11965,8 +11965,8 @@
       <c r="A119" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>18</v>
+      <c r="B119" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C119" s="11" t="s">
         <v>6</v>
@@ -12042,8 +12042,8 @@
       <c r="A120" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>18</v>
+      <c r="B120" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C120" s="11" t="s">
         <v>6</v>
@@ -12119,8 +12119,8 @@
       <c r="A121" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>18</v>
+      <c r="B121" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>6</v>
@@ -12196,8 +12196,8 @@
       <c r="A122" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>18</v>
+      <c r="B122" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>6</v>
@@ -12273,8 +12273,8 @@
       <c r="A123" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>18</v>
+      <c r="B123" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>6</v>
@@ -12350,8 +12350,8 @@
       <c r="A124" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>18</v>
+      <c r="B124" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>6</v>
@@ -12427,8 +12427,8 @@
       <c r="A125" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>18</v>
+      <c r="B125" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>6</v>
@@ -12504,8 +12504,8 @@
       <c r="A126" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>18</v>
+      <c r="B126" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>6</v>
@@ -12581,8 +12581,8 @@
       <c r="A127" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>18</v>
+      <c r="B127" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>6</v>
@@ -12658,8 +12658,8 @@
       <c r="A128" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>18</v>
+      <c r="B128" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C128" s="11" t="s">
         <v>6</v>
@@ -12735,8 +12735,8 @@
       <c r="A129" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>18</v>
+      <c r="B129" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>6</v>
@@ -12812,8 +12812,8 @@
       <c r="A130" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>18</v>
+      <c r="B130" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>6</v>
@@ -12889,8 +12889,8 @@
       <c r="A131" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>18</v>
+      <c r="B131" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>6</v>
@@ -12966,8 +12966,8 @@
       <c r="A132" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>18</v>
+      <c r="B132" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>6</v>
@@ -13043,8 +13043,8 @@
       <c r="A133" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>18</v>
+      <c r="B133" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>6</v>
@@ -13120,8 +13120,8 @@
       <c r="A134" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>18</v>
+      <c r="B134" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>6</v>
@@ -13197,8 +13197,8 @@
       <c r="A135" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>18</v>
+      <c r="B135" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>6</v>
@@ -13274,8 +13274,8 @@
       <c r="A136" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>18</v>
+      <c r="B136" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>6</v>
@@ -13351,8 +13351,8 @@
       <c r="A137" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>18</v>
+      <c r="B137" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>6</v>
@@ -13428,8 +13428,8 @@
       <c r="A138" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>18</v>
+      <c r="B138" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>6</v>
@@ -13505,8 +13505,8 @@
       <c r="A139" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>18</v>
+      <c r="B139" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>6</v>
@@ -13582,8 +13582,8 @@
       <c r="A140" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>18</v>
+      <c r="B140" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>6</v>
@@ -13659,8 +13659,8 @@
       <c r="A141" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>18</v>
+      <c r="B141" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>6</v>
@@ -13736,8 +13736,8 @@
       <c r="A142" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>18</v>
+      <c r="B142" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>6</v>
@@ -13813,8 +13813,8 @@
       <c r="A143" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B143" s="11" t="s">
-        <v>18</v>
+      <c r="B143" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>6</v>
@@ -13890,8 +13890,8 @@
       <c r="A144" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B144" s="11" t="s">
-        <v>18</v>
+      <c r="B144" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C144" s="11" t="s">
         <v>6</v>
@@ -13967,8 +13967,8 @@
       <c r="A145" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>18</v>
+      <c r="B145" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C145" s="11" t="s">
         <v>6</v>
@@ -14044,8 +14044,8 @@
       <c r="A146" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B146" s="11" t="s">
-        <v>18</v>
+      <c r="B146" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C146" s="11" t="s">
         <v>6</v>
@@ -14121,8 +14121,8 @@
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>18</v>
+      <c r="B147" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C147" s="11" t="s">
         <v>6</v>
@@ -14198,8 +14198,8 @@
       <c r="A148" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>18</v>
+      <c r="B148" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C148" s="11" t="s">
         <v>6</v>
@@ -14275,8 +14275,8 @@
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>18</v>
+      <c r="B149" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>6</v>
@@ -14352,8 +14352,8 @@
       <c r="A150" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B150" s="11" t="s">
-        <v>18</v>
+      <c r="B150" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C150" s="11" t="s">
         <v>6</v>
@@ -14429,8 +14429,8 @@
       <c r="A151" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B151" s="11" t="s">
-        <v>18</v>
+      <c r="B151" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>6</v>
@@ -14506,8 +14506,8 @@
       <c r="A152" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>18</v>
+      <c r="B152" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>6</v>
@@ -14583,8 +14583,8 @@
       <c r="A153" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>18</v>
+      <c r="B153" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>6</v>
@@ -14660,8 +14660,8 @@
       <c r="A154" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>18</v>
+      <c r="B154" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>6</v>
@@ -14737,8 +14737,8 @@
       <c r="A155" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="11" t="s">
-        <v>18</v>
+      <c r="B155" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>6</v>
@@ -14814,8 +14814,8 @@
       <c r="A156" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>18</v>
+      <c r="B156" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>6</v>
@@ -14891,8 +14891,8 @@
       <c r="A157" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B157" s="11" t="s">
-        <v>18</v>
+      <c r="B157" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>6</v>
@@ -14968,8 +14968,8 @@
       <c r="A158" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B158" s="11" t="s">
-        <v>18</v>
+      <c r="B158" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>6</v>
@@ -15045,8 +15045,8 @@
       <c r="A159" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>18</v>
+      <c r="B159" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>6</v>
@@ -15122,8 +15122,8 @@
       <c r="A160" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B160" s="11" t="s">
-        <v>18</v>
+      <c r="B160" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>6</v>
@@ -15199,8 +15199,8 @@
       <c r="A161" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B161" s="11" t="s">
-        <v>18</v>
+      <c r="B161" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>6</v>
@@ -15276,8 +15276,8 @@
       <c r="A162" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>18</v>
+      <c r="B162" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>6</v>
@@ -15353,8 +15353,8 @@
       <c r="A163" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B163" s="11" t="s">
-        <v>18</v>
+      <c r="B163" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C163" s="11" t="s">
         <v>6</v>
@@ -15430,8 +15430,8 @@
       <c r="A164" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="11" t="s">
-        <v>18</v>
+      <c r="B164" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>6</v>
@@ -15507,8 +15507,8 @@
       <c r="A165" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B165" s="11" t="s">
-        <v>18</v>
+      <c r="B165" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>6</v>
@@ -15584,8 +15584,8 @@
       <c r="A166" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B166" s="11" t="s">
-        <v>18</v>
+      <c r="B166" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C166" s="11" t="s">
         <v>6</v>
@@ -15661,8 +15661,8 @@
       <c r="A167" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B167" s="11" t="s">
-        <v>18</v>
+      <c r="B167" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C167" s="11" t="s">
         <v>6</v>
@@ -15738,8 +15738,8 @@
       <c r="A168" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B168" s="11" t="s">
-        <v>18</v>
+      <c r="B168" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>6</v>
@@ -15815,8 +15815,8 @@
       <c r="A169" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B169" s="11" t="s">
-        <v>18</v>
+      <c r="B169" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>6</v>
@@ -15892,8 +15892,8 @@
       <c r="A170" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>18</v>
+      <c r="B170" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C170" s="11" t="s">
         <v>6</v>
@@ -15969,8 +15969,8 @@
       <c r="A171" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>18</v>
+      <c r="B171" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C171" s="11" t="s">
         <v>6</v>
@@ -16046,8 +16046,8 @@
       <c r="A172" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B172" s="11" t="s">
-        <v>18</v>
+      <c r="B172" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>6</v>
@@ -16123,8 +16123,8 @@
       <c r="A173" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B173" s="11" t="s">
-        <v>18</v>
+      <c r="B173" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C173" s="11" t="s">
         <v>6</v>
@@ -16200,8 +16200,8 @@
       <c r="A174" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>18</v>
+      <c r="B174" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C174" s="11" t="s">
         <v>6</v>
@@ -16277,8 +16277,8 @@
       <c r="A175" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B175" s="11" t="s">
-        <v>18</v>
+      <c r="B175" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>6</v>
@@ -16354,8 +16354,8 @@
       <c r="A176" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B176" s="11" t="s">
-        <v>18</v>
+      <c r="B176" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C176" s="11" t="s">
         <v>6</v>
@@ -16431,8 +16431,8 @@
       <c r="A177" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>18</v>
+      <c r="B177" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>6</v>
@@ -16508,8 +16508,8 @@
       <c r="A178" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>18</v>
+      <c r="B178" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C178" s="11" t="s">
         <v>6</v>
@@ -16585,8 +16585,8 @@
       <c r="A179" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>18</v>
+      <c r="B179" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C179" s="11" t="s">
         <v>6</v>
@@ -16662,8 +16662,8 @@
       <c r="A180" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>18</v>
+      <c r="B180" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>6</v>
@@ -16739,8 +16739,8 @@
       <c r="A181" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>18</v>
+      <c r="B181" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>6</v>
@@ -16816,8 +16816,8 @@
       <c r="A182" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>18</v>
+      <c r="B182" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>6</v>
@@ -16893,8 +16893,8 @@
       <c r="A183" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>18</v>
+      <c r="B183" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>6</v>
@@ -16970,8 +16970,8 @@
       <c r="A184" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>18</v>
+      <c r="B184" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C184" s="11" t="s">
         <v>6</v>
@@ -17047,8 +17047,8 @@
       <c r="A185" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>18</v>
+      <c r="B185" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>6</v>
@@ -17124,8 +17124,8 @@
       <c r="A186" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>18</v>
+      <c r="B186" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C186" s="11" t="s">
         <v>6</v>
@@ -17201,8 +17201,8 @@
       <c r="A187" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>18</v>
+      <c r="B187" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>6</v>
@@ -17278,8 +17278,8 @@
       <c r="A188" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>18</v>
+      <c r="B188" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C188" s="11" t="s">
         <v>6</v>
@@ -17355,8 +17355,8 @@
       <c r="A189" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B189" s="11" t="s">
-        <v>18</v>
+      <c r="B189" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C189" s="11" t="s">
         <v>6</v>
@@ -17432,8 +17432,8 @@
       <c r="A190" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>18</v>
+      <c r="B190" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C190" s="11" t="s">
         <v>6</v>
@@ -17509,8 +17509,8 @@
       <c r="A191" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B191" s="11" t="s">
-        <v>18</v>
+      <c r="B191" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C191" s="11" t="s">
         <v>6</v>
@@ -17586,8 +17586,8 @@
       <c r="A192" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B192" s="11" t="s">
-        <v>18</v>
+      <c r="B192" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C192" s="11" t="s">
         <v>6</v>
@@ -17663,8 +17663,8 @@
       <c r="A193" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B193" s="11" t="s">
-        <v>18</v>
+      <c r="B193" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C193" s="11" t="s">
         <v>6</v>
@@ -17740,8 +17740,8 @@
       <c r="A194" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>18</v>
+      <c r="B194" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C194" s="11" t="s">
         <v>6</v>
@@ -17817,8 +17817,8 @@
       <c r="A195" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>18</v>
+      <c r="B195" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C195" s="11" t="s">
         <v>6</v>
@@ -17894,8 +17894,8 @@
       <c r="A196" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>18</v>
+      <c r="B196" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C196" s="11" t="s">
         <v>6</v>
@@ -17971,8 +17971,8 @@
       <c r="A197" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B197" s="11" t="s">
-        <v>18</v>
+      <c r="B197" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C197" s="11" t="s">
         <v>6</v>
@@ -18048,8 +18048,8 @@
       <c r="A198" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B198" s="11" t="s">
-        <v>18</v>
+      <c r="B198" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C198" s="11" t="s">
         <v>6</v>
@@ -18125,8 +18125,8 @@
       <c r="A199" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B199" s="11" t="s">
-        <v>18</v>
+      <c r="B199" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C199" s="11" t="s">
         <v>6</v>
@@ -18202,8 +18202,8 @@
       <c r="A200" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>18</v>
+      <c r="B200" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C200" s="11" t="s">
         <v>6</v>
@@ -18279,8 +18279,8 @@
       <c r="A201" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B201" s="11" t="s">
-        <v>18</v>
+      <c r="B201" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C201" s="11" t="s">
         <v>6</v>
@@ -18356,8 +18356,8 @@
       <c r="A202" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>18</v>
+      <c r="B202" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C202" s="11" t="s">
         <v>6</v>
@@ -18433,8 +18433,8 @@
       <c r="A203" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B203" s="11" t="s">
-        <v>18</v>
+      <c r="B203" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C203" s="11" t="s">
         <v>6</v>
@@ -18510,8 +18510,8 @@
       <c r="A204" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>18</v>
+      <c r="B204" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C204" s="11" t="s">
         <v>6</v>
@@ -18587,8 +18587,8 @@
       <c r="A205" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B205" s="11" t="s">
-        <v>18</v>
+      <c r="B205" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C205" s="11" t="s">
         <v>6</v>
@@ -18664,8 +18664,8 @@
       <c r="A206" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B206" s="11" t="s">
-        <v>18</v>
+      <c r="B206" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C206" s="11" t="s">
         <v>6</v>
@@ -18741,8 +18741,8 @@
       <c r="A207" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B207" s="11" t="s">
-        <v>18</v>
+      <c r="B207" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>6</v>
@@ -18818,8 +18818,8 @@
       <c r="A208" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>18</v>
+      <c r="B208" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C208" s="11" t="s">
         <v>6</v>
@@ -18895,8 +18895,8 @@
       <c r="A209" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>18</v>
+      <c r="B209" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C209" s="11" t="s">
         <v>6</v>
@@ -18972,8 +18972,8 @@
       <c r="A210" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B210" s="11" t="s">
-        <v>18</v>
+      <c r="B210" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C210" s="11" t="s">
         <v>6</v>
@@ -19049,8 +19049,8 @@
       <c r="A211" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B211" s="11" t="s">
-        <v>18</v>
+      <c r="B211" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C211" s="11" t="s">
         <v>6</v>
@@ -19126,8 +19126,8 @@
       <c r="A212" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B212" s="11" t="s">
-        <v>18</v>
+      <c r="B212" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C212" s="11" t="s">
         <v>6</v>
@@ -19203,8 +19203,8 @@
       <c r="A213" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B213" s="11" t="s">
-        <v>18</v>
+      <c r="B213" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C213" s="11" t="s">
         <v>6</v>
@@ -19280,8 +19280,8 @@
       <c r="A214" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B214" s="11" t="s">
-        <v>18</v>
+      <c r="B214" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C214" s="11" t="s">
         <v>6</v>
@@ -19357,8 +19357,8 @@
       <c r="A215" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B215" s="11" t="s">
-        <v>18</v>
+      <c r="B215" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C215" s="11" t="s">
         <v>6</v>
@@ -19434,8 +19434,8 @@
       <c r="A216" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>18</v>
+      <c r="B216" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C216" s="11" t="s">
         <v>6</v>
@@ -19511,8 +19511,8 @@
       <c r="A217" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B217" s="11" t="s">
-        <v>18</v>
+      <c r="B217" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C217" s="11" t="s">
         <v>6</v>
@@ -19588,8 +19588,8 @@
       <c r="A218" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B218" s="11" t="s">
-        <v>18</v>
+      <c r="B218" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>6</v>
@@ -19665,8 +19665,8 @@
       <c r="A219" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B219" s="11" t="s">
-        <v>18</v>
+      <c r="B219" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C219" s="11" t="s">
         <v>6</v>
@@ -19742,8 +19742,8 @@
       <c r="A220" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B220" s="11" t="s">
-        <v>18</v>
+      <c r="B220" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C220" s="11" t="s">
         <v>6</v>
@@ -19819,8 +19819,8 @@
       <c r="A221" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B221" s="11" t="s">
-        <v>18</v>
+      <c r="B221" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>6</v>
@@ -19896,8 +19896,8 @@
       <c r="A222" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B222" s="11" t="s">
-        <v>18</v>
+      <c r="B222" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C222" s="11" t="s">
         <v>6</v>
@@ -19973,8 +19973,8 @@
       <c r="A223" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B223" s="11" t="s">
-        <v>18</v>
+      <c r="B223" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C223" s="11" t="s">
         <v>6</v>
@@ -20050,8 +20050,8 @@
       <c r="A224" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="11" t="s">
-        <v>18</v>
+      <c r="B224" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C224" s="11" t="s">
         <v>6</v>
@@ -20127,8 +20127,8 @@
       <c r="A225" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B225" s="11" t="s">
-        <v>18</v>
+      <c r="B225" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C225" s="11" t="s">
         <v>6</v>
@@ -20204,8 +20204,8 @@
       <c r="A226" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>18</v>
+      <c r="B226" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C226" s="11" t="s">
         <v>6</v>
@@ -20281,8 +20281,8 @@
       <c r="A227" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B227" s="11" t="s">
-        <v>18</v>
+      <c r="B227" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C227" s="11" t="s">
         <v>6</v>
@@ -20358,8 +20358,8 @@
       <c r="A228" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B228" s="11" t="s">
-        <v>18</v>
+      <c r="B228" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C228" s="11" t="s">
         <v>6</v>
@@ -20435,8 +20435,8 @@
       <c r="A229" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>18</v>
+      <c r="B229" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C229" s="11" t="s">
         <v>6</v>
@@ -20512,8 +20512,8 @@
       <c r="A230" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B230" s="11" t="s">
-        <v>18</v>
+      <c r="B230" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C230" s="11" t="s">
         <v>6</v>
@@ -20589,8 +20589,8 @@
       <c r="A231" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>18</v>
+      <c r="B231" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C231" s="11" t="s">
         <v>6</v>
@@ -20666,8 +20666,8 @@
       <c r="A232" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B232" s="11" t="s">
-        <v>18</v>
+      <c r="B232" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C232" s="11" t="s">
         <v>6</v>
@@ -20743,8 +20743,8 @@
       <c r="A233" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B233" s="11" t="s">
-        <v>18</v>
+      <c r="B233" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C233" s="11" t="s">
         <v>6</v>
@@ -20820,8 +20820,8 @@
       <c r="A234" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B234" s="11" t="s">
-        <v>18</v>
+      <c r="B234" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C234" s="11" t="s">
         <v>6</v>
@@ -20897,8 +20897,8 @@
       <c r="A235" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B235" s="11" t="s">
-        <v>18</v>
+      <c r="B235" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C235" s="11" t="s">
         <v>6</v>
@@ -20974,8 +20974,8 @@
       <c r="A236" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B236" s="11" t="s">
-        <v>18</v>
+      <c r="B236" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C236" s="11" t="s">
         <v>6</v>
@@ -21051,8 +21051,8 @@
       <c r="A237" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>18</v>
+      <c r="B237" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C237" s="11" t="s">
         <v>6</v>
@@ -21128,8 +21128,8 @@
       <c r="A238" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B238" s="11" t="s">
-        <v>18</v>
+      <c r="B238" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C238" s="11" t="s">
         <v>6</v>
@@ -21205,8 +21205,8 @@
       <c r="A239" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B239" s="11" t="s">
-        <v>18</v>
+      <c r="B239" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C239" s="11" t="s">
         <v>6</v>
@@ -21282,8 +21282,8 @@
       <c r="A240" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B240" s="11" t="s">
-        <v>18</v>
+      <c r="B240" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C240" s="11" t="s">
         <v>6</v>
@@ -21359,8 +21359,8 @@
       <c r="A241" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B241" s="11" t="s">
-        <v>18</v>
+      <c r="B241" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C241" s="11" t="s">
         <v>6</v>
@@ -21436,8 +21436,8 @@
       <c r="A242" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>18</v>
+      <c r="B242" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C242" s="11" t="s">
         <v>6</v>
@@ -21513,8 +21513,8 @@
       <c r="A243" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>18</v>
+      <c r="B243" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C243" s="11" t="s">
         <v>6</v>
@@ -21590,8 +21590,8 @@
       <c r="A244" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B244" s="11" t="s">
-        <v>18</v>
+      <c r="B244" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C244" s="11" t="s">
         <v>6</v>
@@ -21667,8 +21667,8 @@
       <c r="A245" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>18</v>
+      <c r="B245" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C245" s="11" t="s">
         <v>6</v>
@@ -21744,8 +21744,8 @@
       <c r="A246" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>18</v>
+      <c r="B246" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C246" s="11" t="s">
         <v>6</v>
@@ -21821,8 +21821,8 @@
       <c r="A247" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>18</v>
+      <c r="B247" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C247" s="11" t="s">
         <v>6</v>
@@ -21898,8 +21898,8 @@
       <c r="A248" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B248" s="11" t="s">
-        <v>18</v>
+      <c r="B248" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C248" s="11" t="s">
         <v>6</v>
@@ -21975,8 +21975,8 @@
       <c r="A249" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B249" s="11" t="s">
-        <v>18</v>
+      <c r="B249" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C249" s="11" t="s">
         <v>6</v>
@@ -22052,8 +22052,8 @@
       <c r="A250" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B250" s="11" t="s">
-        <v>18</v>
+      <c r="B250" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C250" s="11" t="s">
         <v>6</v>
@@ -22129,8 +22129,8 @@
       <c r="A251" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B251" s="11" t="s">
-        <v>18</v>
+      <c r="B251" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C251" s="11" t="s">
         <v>6</v>
@@ -22206,8 +22206,8 @@
       <c r="A252" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B252" s="11" t="s">
-        <v>18</v>
+      <c r="B252" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C252" s="11" t="s">
         <v>6</v>
@@ -22283,8 +22283,8 @@
       <c r="A253" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B253" s="11" t="s">
-        <v>18</v>
+      <c r="B253" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C253" s="11" t="s">
         <v>6</v>
@@ -22360,8 +22360,8 @@
       <c r="A254" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B254" s="11" t="s">
-        <v>18</v>
+      <c r="B254" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C254" s="11" t="s">
         <v>6</v>
@@ -22437,8 +22437,8 @@
       <c r="A255" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B255" s="11" t="s">
-        <v>18</v>
+      <c r="B255" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C255" s="11" t="s">
         <v>6</v>
@@ -22514,8 +22514,8 @@
       <c r="A256" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B256" s="11" t="s">
-        <v>18</v>
+      <c r="B256" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C256" s="11" t="s">
         <v>6</v>
@@ -22591,8 +22591,8 @@
       <c r="A257" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B257" s="11" t="s">
-        <v>18</v>
+      <c r="B257" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C257" s="11" t="s">
         <v>6</v>
@@ -22668,8 +22668,8 @@
       <c r="A258" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B258" s="11" t="s">
-        <v>18</v>
+      <c r="B258" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C258" s="11" t="s">
         <v>6</v>
@@ -22745,8 +22745,8 @@
       <c r="A259" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B259" s="11" t="s">
-        <v>18</v>
+      <c r="B259" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C259" s="11" t="s">
         <v>6</v>
@@ -22822,8 +22822,8 @@
       <c r="A260" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B260" s="11" t="s">
-        <v>18</v>
+      <c r="B260" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C260" s="11" t="s">
         <v>6</v>
@@ -22899,8 +22899,8 @@
       <c r="A261" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B261" s="11" t="s">
-        <v>18</v>
+      <c r="B261" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C261" s="11" t="s">
         <v>6</v>
@@ -22976,8 +22976,8 @@
       <c r="A262" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B262" s="11" t="s">
-        <v>18</v>
+      <c r="B262" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C262" s="11" t="s">
         <v>6</v>
@@ -23053,8 +23053,8 @@
       <c r="A263" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B263" s="11" t="s">
-        <v>18</v>
+      <c r="B263" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C263" s="11" t="s">
         <v>6</v>
@@ -23130,8 +23130,8 @@
       <c r="A264" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B264" s="11" t="s">
-        <v>18</v>
+      <c r="B264" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C264" s="11" t="s">
         <v>6</v>
@@ -23207,8 +23207,8 @@
       <c r="A265" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B265" s="11" t="s">
-        <v>18</v>
+      <c r="B265" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C265" s="11" t="s">
         <v>6</v>
@@ -23284,8 +23284,8 @@
       <c r="A266" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B266" s="11" t="s">
-        <v>18</v>
+      <c r="B266" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C266" s="11" t="s">
         <v>6</v>
@@ -23361,8 +23361,8 @@
       <c r="A267" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B267" s="11" t="s">
-        <v>18</v>
+      <c r="B267" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C267" s="11" t="s">
         <v>6</v>
@@ -23438,8 +23438,8 @@
       <c r="A268" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B268" s="11" t="s">
-        <v>18</v>
+      <c r="B268" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C268" s="11" t="s">
         <v>6</v>
@@ -23515,8 +23515,8 @@
       <c r="A269" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B269" s="11" t="s">
-        <v>18</v>
+      <c r="B269" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>6</v>
@@ -23592,8 +23592,8 @@
       <c r="A270" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B270" s="11" t="s">
-        <v>18</v>
+      <c r="B270" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>6</v>
@@ -23669,8 +23669,8 @@
       <c r="A271" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B271" s="11" t="s">
-        <v>18</v>
+      <c r="B271" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>6</v>
@@ -23746,8 +23746,8 @@
       <c r="A272" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B272" s="11" t="s">
-        <v>18</v>
+      <c r="B272" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C272" s="11" t="s">
         <v>6</v>
@@ -23823,8 +23823,8 @@
       <c r="A273" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B273" s="11" t="s">
-        <v>18</v>
+      <c r="B273" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C273" s="11" t="s">
         <v>6</v>
@@ -23900,8 +23900,8 @@
       <c r="A274" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B274" s="11" t="s">
-        <v>18</v>
+      <c r="B274" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C274" s="11" t="s">
         <v>6</v>
@@ -23977,8 +23977,8 @@
       <c r="A275" t="s">
         <v>310</v>
       </c>
-      <c r="B275" s="11" t="s">
-        <v>18</v>
+      <c r="B275" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C275" s="11" t="s">
         <v>6</v>
@@ -24054,8 +24054,8 @@
       <c r="A276" t="s">
         <v>311</v>
       </c>
-      <c r="B276" s="11" t="s">
-        <v>18</v>
+      <c r="B276" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C276" s="11" t="s">
         <v>6</v>
@@ -24131,8 +24131,8 @@
       <c r="A277" t="s">
         <v>312</v>
       </c>
-      <c r="B277" s="11" t="s">
-        <v>18</v>
+      <c r="B277" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C277" s="11" t="s">
         <v>6</v>
@@ -24208,8 +24208,8 @@
       <c r="A278" t="s">
         <v>313</v>
       </c>
-      <c r="B278" s="11" t="s">
-        <v>18</v>
+      <c r="B278" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C278" s="11" t="s">
         <v>6</v>
@@ -24285,8 +24285,8 @@
       <c r="A279" t="s">
         <v>314</v>
       </c>
-      <c r="B279" s="11" t="s">
-        <v>18</v>
+      <c r="B279" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C279" s="11" t="s">
         <v>6</v>
@@ -24362,8 +24362,8 @@
       <c r="A280" t="s">
         <v>315</v>
       </c>
-      <c r="B280" s="11" t="s">
-        <v>18</v>
+      <c r="B280" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C280" s="11" t="s">
         <v>6</v>
@@ -24439,8 +24439,8 @@
       <c r="A281" t="s">
         <v>316</v>
       </c>
-      <c r="B281" s="11" t="s">
-        <v>18</v>
+      <c r="B281" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>6</v>
@@ -24516,8 +24516,8 @@
       <c r="A282" t="s">
         <v>317</v>
       </c>
-      <c r="B282" s="11" t="s">
-        <v>18</v>
+      <c r="B282" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C282" s="11" t="s">
         <v>6</v>
@@ -24593,8 +24593,8 @@
       <c r="A283" t="s">
         <v>318</v>
       </c>
-      <c r="B283" s="11" t="s">
-        <v>18</v>
+      <c r="B283" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C283" s="11" t="s">
         <v>6</v>
@@ -24670,8 +24670,8 @@
       <c r="A284" t="s">
         <v>319</v>
       </c>
-      <c r="B284" s="11" t="s">
-        <v>18</v>
+      <c r="B284" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C284" s="11" t="s">
         <v>6</v>
@@ -24747,8 +24747,8 @@
       <c r="A285" t="s">
         <v>320</v>
       </c>
-      <c r="B285" s="11" t="s">
-        <v>18</v>
+      <c r="B285" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C285" s="11" t="s">
         <v>6</v>
@@ -24824,8 +24824,8 @@
       <c r="A286" t="s">
         <v>321</v>
       </c>
-      <c r="B286" s="11" t="s">
-        <v>18</v>
+      <c r="B286" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C286" s="11" t="s">
         <v>6</v>
@@ -24901,8 +24901,8 @@
       <c r="A287" t="s">
         <v>322</v>
       </c>
-      <c r="B287" s="11" t="s">
-        <v>18</v>
+      <c r="B287" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C287" s="11" t="s">
         <v>6</v>
@@ -24978,8 +24978,8 @@
       <c r="A288" t="s">
         <v>323</v>
       </c>
-      <c r="B288" s="11" t="s">
-        <v>18</v>
+      <c r="B288" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C288" s="11" t="s">
         <v>6</v>
@@ -25055,8 +25055,8 @@
       <c r="A289" t="s">
         <v>324</v>
       </c>
-      <c r="B289" s="11" t="s">
-        <v>18</v>
+      <c r="B289" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C289" s="11" t="s">
         <v>6</v>
@@ -25132,8 +25132,8 @@
       <c r="A290" t="s">
         <v>325</v>
       </c>
-      <c r="B290" s="11" t="s">
-        <v>18</v>
+      <c r="B290" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C290" s="11" t="s">
         <v>6</v>
@@ -25209,8 +25209,8 @@
       <c r="A291" t="s">
         <v>326</v>
       </c>
-      <c r="B291" s="11" t="s">
-        <v>18</v>
+      <c r="B291" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C291" s="11" t="s">
         <v>6</v>
@@ -25286,8 +25286,8 @@
       <c r="A292" t="s">
         <v>327</v>
       </c>
-      <c r="B292" s="11" t="s">
-        <v>18</v>
+      <c r="B292" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C292" s="11" t="s">
         <v>6</v>
@@ -25363,8 +25363,8 @@
       <c r="A293" t="s">
         <v>328</v>
       </c>
-      <c r="B293" s="11" t="s">
-        <v>18</v>
+      <c r="B293" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>6</v>
@@ -25440,8 +25440,8 @@
       <c r="A294" t="s">
         <v>329</v>
       </c>
-      <c r="B294" s="11" t="s">
-        <v>18</v>
+      <c r="B294" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C294" s="11" t="s">
         <v>6</v>
@@ -25517,8 +25517,8 @@
       <c r="A295" t="s">
         <v>330</v>
       </c>
-      <c r="B295" s="11" t="s">
-        <v>18</v>
+      <c r="B295" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C295" s="11" t="s">
         <v>6</v>
@@ -25594,8 +25594,8 @@
       <c r="A296" t="s">
         <v>331</v>
       </c>
-      <c r="B296" s="11" t="s">
-        <v>18</v>
+      <c r="B296" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C296" s="11" t="s">
         <v>6</v>
@@ -25671,8 +25671,8 @@
       <c r="A297" t="s">
         <v>332</v>
       </c>
-      <c r="B297" s="11" t="s">
-        <v>18</v>
+      <c r="B297" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C297" s="11" t="s">
         <v>6</v>
@@ -25748,8 +25748,8 @@
       <c r="A298" t="s">
         <v>333</v>
       </c>
-      <c r="B298" s="11" t="s">
-        <v>18</v>
+      <c r="B298" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C298" s="11" t="s">
         <v>6</v>
@@ -25825,8 +25825,8 @@
       <c r="A299" t="s">
         <v>334</v>
       </c>
-      <c r="B299" s="11" t="s">
-        <v>18</v>
+      <c r="B299" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C299" s="11" t="s">
         <v>6</v>
@@ -25902,8 +25902,8 @@
       <c r="A300" t="s">
         <v>335</v>
       </c>
-      <c r="B300" s="11" t="s">
-        <v>18</v>
+      <c r="B300" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C300" s="11" t="s">
         <v>6</v>
@@ -25979,8 +25979,8 @@
       <c r="A301" t="s">
         <v>336</v>
       </c>
-      <c r="B301" s="11" t="s">
-        <v>18</v>
+      <c r="B301" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>6</v>
@@ -26056,8 +26056,8 @@
       <c r="A302" t="s">
         <v>337</v>
       </c>
-      <c r="B302" s="11" t="s">
-        <v>18</v>
+      <c r="B302" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C302" s="11" t="s">
         <v>6</v>
@@ -26133,8 +26133,8 @@
       <c r="A303" t="s">
         <v>338</v>
       </c>
-      <c r="B303" s="11" t="s">
-        <v>18</v>
+      <c r="B303" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C303" s="11" t="s">
         <v>6</v>
@@ -26210,8 +26210,8 @@
       <c r="A304" t="s">
         <v>339</v>
       </c>
-      <c r="B304" s="11" t="s">
-        <v>18</v>
+      <c r="B304" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C304" s="11" t="s">
         <v>6</v>
@@ -26287,8 +26287,8 @@
       <c r="A305" t="s">
         <v>340</v>
       </c>
-      <c r="B305" s="11" t="s">
-        <v>18</v>
+      <c r="B305" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C305" s="11" t="s">
         <v>6</v>
@@ -26364,8 +26364,8 @@
       <c r="A306" t="s">
         <v>341</v>
       </c>
-      <c r="B306" s="11" t="s">
-        <v>18</v>
+      <c r="B306" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C306" s="11" t="s">
         <v>6</v>
@@ -26441,8 +26441,8 @@
       <c r="A307" t="s">
         <v>342</v>
       </c>
-      <c r="B307" s="11" t="s">
-        <v>18</v>
+      <c r="B307" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C307" s="11" t="s">
         <v>6</v>
@@ -26518,8 +26518,8 @@
       <c r="A308" t="s">
         <v>343</v>
       </c>
-      <c r="B308" s="11" t="s">
-        <v>18</v>
+      <c r="B308" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C308" s="11" t="s">
         <v>6</v>
@@ -26595,8 +26595,8 @@
       <c r="A309" t="s">
         <v>344</v>
       </c>
-      <c r="B309" s="11" t="s">
-        <v>18</v>
+      <c r="B309" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C309" s="11" t="s">
         <v>6</v>
@@ -26672,8 +26672,8 @@
       <c r="A310" t="s">
         <v>345</v>
       </c>
-      <c r="B310" s="11" t="s">
-        <v>18</v>
+      <c r="B310" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C310" s="11" t="s">
         <v>6</v>
@@ -26749,8 +26749,8 @@
       <c r="A311" t="s">
         <v>346</v>
       </c>
-      <c r="B311" s="11" t="s">
-        <v>18</v>
+      <c r="B311" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C311" s="11" t="s">
         <v>6</v>
@@ -26826,8 +26826,8 @@
       <c r="A312" t="s">
         <v>347</v>
       </c>
-      <c r="B312" s="11" t="s">
-        <v>18</v>
+      <c r="B312" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C312" s="11" t="s">
         <v>6</v>
@@ -26903,8 +26903,8 @@
       <c r="A313" t="s">
         <v>348</v>
       </c>
-      <c r="B313" s="11" t="s">
-        <v>18</v>
+      <c r="B313" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C313" s="11" t="s">
         <v>6</v>
@@ -26980,8 +26980,8 @@
       <c r="A314" t="s">
         <v>349</v>
       </c>
-      <c r="B314" s="11" t="s">
-        <v>18</v>
+      <c r="B314" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C314" s="11" t="s">
         <v>6</v>
@@ -27057,8 +27057,8 @@
       <c r="A315" t="s">
         <v>350</v>
       </c>
-      <c r="B315" s="11" t="s">
-        <v>18</v>
+      <c r="B315" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>6</v>
@@ -27134,8 +27134,8 @@
       <c r="A316" t="s">
         <v>351</v>
       </c>
-      <c r="B316" s="11" t="s">
-        <v>18</v>
+      <c r="B316" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>6</v>
@@ -27211,8 +27211,8 @@
       <c r="A317" t="s">
         <v>352</v>
       </c>
-      <c r="B317" s="11" t="s">
-        <v>18</v>
+      <c r="B317" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>6</v>
@@ -27288,8 +27288,8 @@
       <c r="A318" t="s">
         <v>353</v>
       </c>
-      <c r="B318" s="11" t="s">
-        <v>18</v>
+      <c r="B318" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C318" s="11" t="s">
         <v>6</v>
@@ -27365,8 +27365,8 @@
       <c r="A319" t="s">
         <v>354</v>
       </c>
-      <c r="B319" s="11" t="s">
-        <v>18</v>
+      <c r="B319" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C319" s="11" t="s">
         <v>6</v>
@@ -27442,8 +27442,8 @@
       <c r="A320" t="s">
         <v>355</v>
       </c>
-      <c r="B320" s="11" t="s">
-        <v>18</v>
+      <c r="B320" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C320" s="11" t="s">
         <v>6</v>
@@ -27519,8 +27519,8 @@
       <c r="A321" t="s">
         <v>356</v>
       </c>
-      <c r="B321" s="11" t="s">
-        <v>18</v>
+      <c r="B321" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C321" s="11" t="s">
         <v>6</v>
@@ -27596,8 +27596,8 @@
       <c r="A322" t="s">
         <v>357</v>
       </c>
-      <c r="B322" s="11" t="s">
-        <v>18</v>
+      <c r="B322" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C322" s="11" t="s">
         <v>6</v>
@@ -27673,8 +27673,8 @@
       <c r="A323" t="s">
         <v>358</v>
       </c>
-      <c r="B323" s="11" t="s">
-        <v>18</v>
+      <c r="B323" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>6</v>
@@ -27750,8 +27750,8 @@
       <c r="A324" t="s">
         <v>359</v>
       </c>
-      <c r="B324" s="11" t="s">
-        <v>18</v>
+      <c r="B324" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C324" s="11" t="s">
         <v>6</v>
@@ -27827,8 +27827,8 @@
       <c r="A325" t="s">
         <v>360</v>
       </c>
-      <c r="B325" s="11" t="s">
-        <v>18</v>
+      <c r="B325" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C325" s="11" t="s">
         <v>6</v>
@@ -27904,8 +27904,8 @@
       <c r="A326" t="s">
         <v>361</v>
       </c>
-      <c r="B326" s="11" t="s">
-        <v>18</v>
+      <c r="B326" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C326" s="11" t="s">
         <v>6</v>
@@ -27981,8 +27981,8 @@
       <c r="A327" t="s">
         <v>362</v>
       </c>
-      <c r="B327" s="11" t="s">
-        <v>18</v>
+      <c r="B327" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C327" s="11" t="s">
         <v>6</v>
@@ -28058,8 +28058,8 @@
       <c r="A328" t="s">
         <v>363</v>
       </c>
-      <c r="B328" s="11" t="s">
-        <v>18</v>
+      <c r="B328" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>6</v>
@@ -28135,8 +28135,8 @@
       <c r="A329" t="s">
         <v>364</v>
       </c>
-      <c r="B329" s="11" t="s">
-        <v>18</v>
+      <c r="B329" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C329" s="11" t="s">
         <v>6</v>
@@ -28212,8 +28212,8 @@
       <c r="A330" t="s">
         <v>365</v>
       </c>
-      <c r="B330" s="11" t="s">
-        <v>18</v>
+      <c r="B330" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C330" s="11" t="s">
         <v>6</v>
@@ -28289,8 +28289,8 @@
       <c r="A331" t="s">
         <v>366</v>
       </c>
-      <c r="B331" s="11" t="s">
-        <v>18</v>
+      <c r="B331" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C331" s="11" t="s">
         <v>6</v>
@@ -28366,8 +28366,8 @@
       <c r="A332" t="s">
         <v>367</v>
       </c>
-      <c r="B332" s="11" t="s">
-        <v>18</v>
+      <c r="B332" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C332" s="11" t="s">
         <v>6</v>
@@ -28443,8 +28443,8 @@
       <c r="A333" t="s">
         <v>368</v>
       </c>
-      <c r="B333" s="11" t="s">
-        <v>18</v>
+      <c r="B333" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C333" s="11" t="s">
         <v>6</v>
@@ -28520,8 +28520,8 @@
       <c r="A334" t="s">
         <v>369</v>
       </c>
-      <c r="B334" s="11" t="s">
-        <v>18</v>
+      <c r="B334" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C334" s="11" t="s">
         <v>6</v>
@@ -28597,8 +28597,8 @@
       <c r="A335" t="s">
         <v>370</v>
       </c>
-      <c r="B335" s="11" t="s">
-        <v>18</v>
+      <c r="B335" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C335" s="11" t="s">
         <v>6</v>
@@ -28674,8 +28674,8 @@
       <c r="A336" t="s">
         <v>371</v>
       </c>
-      <c r="B336" s="11" t="s">
-        <v>18</v>
+      <c r="B336" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C336" s="11" t="s">
         <v>6</v>
@@ -28751,8 +28751,8 @@
       <c r="A337" t="s">
         <v>372</v>
       </c>
-      <c r="B337" s="11" t="s">
-        <v>18</v>
+      <c r="B337" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C337" s="11" t="s">
         <v>6</v>
@@ -28828,8 +28828,8 @@
       <c r="A338" t="s">
         <v>373</v>
       </c>
-      <c r="B338" s="11" t="s">
-        <v>18</v>
+      <c r="B338" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C338" s="11" t="s">
         <v>6</v>
@@ -28905,8 +28905,8 @@
       <c r="A339" t="s">
         <v>374</v>
       </c>
-      <c r="B339" s="11" t="s">
-        <v>18</v>
+      <c r="B339" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C339" s="11" t="s">
         <v>6</v>
@@ -28982,8 +28982,8 @@
       <c r="A340" t="s">
         <v>375</v>
       </c>
-      <c r="B340" s="11" t="s">
-        <v>18</v>
+      <c r="B340" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C340" s="11" t="s">
         <v>6</v>
@@ -29059,8 +29059,8 @@
       <c r="A341" t="s">
         <v>376</v>
       </c>
-      <c r="B341" s="11" t="s">
-        <v>18</v>
+      <c r="B341" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C341" s="11" t="s">
         <v>6</v>
@@ -29136,8 +29136,8 @@
       <c r="A342" t="s">
         <v>377</v>
       </c>
-      <c r="B342" s="11" t="s">
-        <v>18</v>
+      <c r="B342" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C342" s="11" t="s">
         <v>6</v>
@@ -29213,8 +29213,8 @@
       <c r="A343" t="s">
         <v>378</v>
       </c>
-      <c r="B343" s="11" t="s">
-        <v>18</v>
+      <c r="B343" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C343" s="11" t="s">
         <v>6</v>
@@ -29290,8 +29290,8 @@
       <c r="A344" t="s">
         <v>379</v>
       </c>
-      <c r="B344" s="11" t="s">
-        <v>18</v>
+      <c r="B344" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C344" s="11" t="s">
         <v>6</v>
@@ -29367,8 +29367,8 @@
       <c r="A345" t="s">
         <v>380</v>
       </c>
-      <c r="B345" s="11" t="s">
-        <v>18</v>
+      <c r="B345" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C345" s="11" t="s">
         <v>6</v>
@@ -29444,8 +29444,8 @@
       <c r="A346" t="s">
         <v>381</v>
       </c>
-      <c r="B346" s="11" t="s">
-        <v>18</v>
+      <c r="B346" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C346" s="11" t="s">
         <v>6</v>
@@ -29521,8 +29521,8 @@
       <c r="A347" t="s">
         <v>382</v>
       </c>
-      <c r="B347" s="11" t="s">
-        <v>18</v>
+      <c r="B347" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C347" s="11" t="s">
         <v>6</v>
@@ -29598,8 +29598,8 @@
       <c r="A348" t="s">
         <v>383</v>
       </c>
-      <c r="B348" s="11" t="s">
-        <v>18</v>
+      <c r="B348" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C348" s="11" t="s">
         <v>6</v>
@@ -29675,8 +29675,8 @@
       <c r="A349" t="s">
         <v>384</v>
       </c>
-      <c r="B349" s="11" t="s">
-        <v>18</v>
+      <c r="B349" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C349" s="11" t="s">
         <v>6</v>
@@ -29752,8 +29752,8 @@
       <c r="A350" t="s">
         <v>385</v>
       </c>
-      <c r="B350" s="11" t="s">
-        <v>18</v>
+      <c r="B350" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C350" s="11" t="s">
         <v>6</v>
@@ -29829,8 +29829,8 @@
       <c r="A351" t="s">
         <v>386</v>
       </c>
-      <c r="B351" s="11" t="s">
-        <v>18</v>
+      <c r="B351" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C351" s="11" t="s">
         <v>6</v>
@@ -29906,8 +29906,8 @@
       <c r="A352" t="s">
         <v>387</v>
       </c>
-      <c r="B352" s="11" t="s">
-        <v>18</v>
+      <c r="B352" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C352" s="11" t="s">
         <v>6</v>
@@ -29983,8 +29983,8 @@
       <c r="A353" t="s">
         <v>388</v>
       </c>
-      <c r="B353" s="11" t="s">
-        <v>18</v>
+      <c r="B353" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C353" s="11" t="s">
         <v>6</v>
@@ -30060,8 +30060,8 @@
       <c r="A354" t="s">
         <v>389</v>
       </c>
-      <c r="B354" s="11" t="s">
-        <v>18</v>
+      <c r="B354" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C354" s="11" t="s">
         <v>6</v>
@@ -30137,8 +30137,8 @@
       <c r="A355" t="s">
         <v>390</v>
       </c>
-      <c r="B355" s="11" t="s">
-        <v>18</v>
+      <c r="B355" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C355" s="11" t="s">
         <v>6</v>
@@ -30214,8 +30214,8 @@
       <c r="A356" t="s">
         <v>391</v>
       </c>
-      <c r="B356" s="11" t="s">
-        <v>18</v>
+      <c r="B356" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C356" s="11" t="s">
         <v>6</v>
@@ -30291,8 +30291,8 @@
       <c r="A357" t="s">
         <v>392</v>
       </c>
-      <c r="B357" s="11" t="s">
-        <v>18</v>
+      <c r="B357" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C357" s="11" t="s">
         <v>6</v>
@@ -30368,8 +30368,8 @@
       <c r="A358" t="s">
         <v>393</v>
       </c>
-      <c r="B358" s="11" t="s">
-        <v>18</v>
+      <c r="B358" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C358" s="11" t="s">
         <v>6</v>
@@ -30445,8 +30445,8 @@
       <c r="A359" t="s">
         <v>394</v>
       </c>
-      <c r="B359" s="11" t="s">
-        <v>18</v>
+      <c r="B359" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C359" s="11" t="s">
         <v>6</v>
@@ -30522,8 +30522,8 @@
       <c r="A360" t="s">
         <v>395</v>
       </c>
-      <c r="B360" s="11" t="s">
-        <v>18</v>
+      <c r="B360" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C360" s="11" t="s">
         <v>6</v>
@@ -30599,8 +30599,8 @@
       <c r="A361" t="s">
         <v>396</v>
       </c>
-      <c r="B361" s="11" t="s">
-        <v>18</v>
+      <c r="B361" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C361" s="11" t="s">
         <v>6</v>
@@ -30676,8 +30676,8 @@
       <c r="A362" t="s">
         <v>397</v>
       </c>
-      <c r="B362" s="11" t="s">
-        <v>18</v>
+      <c r="B362" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C362" s="11" t="s">
         <v>6</v>
@@ -30753,8 +30753,8 @@
       <c r="A363" t="s">
         <v>398</v>
       </c>
-      <c r="B363" s="11" t="s">
-        <v>18</v>
+      <c r="B363" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C363" s="11" t="s">
         <v>6</v>
@@ -30830,8 +30830,8 @@
       <c r="A364" t="s">
         <v>399</v>
       </c>
-      <c r="B364" s="11" t="s">
-        <v>18</v>
+      <c r="B364" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C364" s="11" t="s">
         <v>6</v>
@@ -30907,8 +30907,8 @@
       <c r="A365" t="s">
         <v>400</v>
       </c>
-      <c r="B365" s="11" t="s">
-        <v>18</v>
+      <c r="B365" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C365" s="11" t="s">
         <v>6</v>
@@ -30984,8 +30984,8 @@
       <c r="A366" t="s">
         <v>401</v>
       </c>
-      <c r="B366" s="11" t="s">
-        <v>18</v>
+      <c r="B366" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C366" s="11" t="s">
         <v>6</v>
@@ -31061,8 +31061,8 @@
       <c r="A367" t="s">
         <v>402</v>
       </c>
-      <c r="B367" s="11" t="s">
-        <v>18</v>
+      <c r="B367" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C367" s="11" t="s">
         <v>6</v>
@@ -31138,8 +31138,8 @@
       <c r="A368" t="s">
         <v>403</v>
       </c>
-      <c r="B368" s="11" t="s">
-        <v>18</v>
+      <c r="B368" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C368" s="11" t="s">
         <v>6</v>
@@ -31215,8 +31215,8 @@
       <c r="A369" t="s">
         <v>404</v>
       </c>
-      <c r="B369" s="11" t="s">
-        <v>18</v>
+      <c r="B369" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C369" s="11" t="s">
         <v>6</v>
@@ -31292,8 +31292,8 @@
       <c r="A370" t="s">
         <v>405</v>
       </c>
-      <c r="B370" s="11" t="s">
-        <v>18</v>
+      <c r="B370" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C370" s="11" t="s">
         <v>6</v>
@@ -31369,8 +31369,8 @@
       <c r="A371" t="s">
         <v>406</v>
       </c>
-      <c r="B371" s="11" t="s">
-        <v>18</v>
+      <c r="B371" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>6</v>
@@ -31446,8 +31446,8 @@
       <c r="A372" t="s">
         <v>407</v>
       </c>
-      <c r="B372" s="11" t="s">
-        <v>18</v>
+      <c r="B372" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C372" s="11" t="s">
         <v>6</v>
@@ -31523,8 +31523,8 @@
       <c r="A373" t="s">
         <v>408</v>
       </c>
-      <c r="B373" s="11" t="s">
-        <v>18</v>
+      <c r="B373" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>6</v>
@@ -31600,8 +31600,8 @@
       <c r="A374" t="s">
         <v>409</v>
       </c>
-      <c r="B374" s="11" t="s">
-        <v>18</v>
+      <c r="B374" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C374" s="11" t="s">
         <v>6</v>
@@ -31677,8 +31677,8 @@
       <c r="A375" t="s">
         <v>410</v>
       </c>
-      <c r="B375" s="11" t="s">
-        <v>18</v>
+      <c r="B375" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>6</v>
@@ -31754,8 +31754,8 @@
       <c r="A376" t="s">
         <v>411</v>
       </c>
-      <c r="B376" s="11" t="s">
-        <v>18</v>
+      <c r="B376" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C376" s="11" t="s">
         <v>6</v>
@@ -31831,8 +31831,8 @@
       <c r="A377" t="s">
         <v>412</v>
       </c>
-      <c r="B377" s="11" t="s">
-        <v>18</v>
+      <c r="B377" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C377" s="11" t="s">
         <v>6</v>
@@ -31908,8 +31908,8 @@
       <c r="A378" t="s">
         <v>413</v>
       </c>
-      <c r="B378" s="11" t="s">
-        <v>18</v>
+      <c r="B378" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>6</v>
@@ -31985,8 +31985,8 @@
       <c r="A379" t="s">
         <v>414</v>
       </c>
-      <c r="B379" s="11" t="s">
-        <v>18</v>
+      <c r="B379" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C379" s="11" t="s">
         <v>6</v>
@@ -32062,8 +32062,8 @@
       <c r="A380" t="s">
         <v>415</v>
       </c>
-      <c r="B380" s="11" t="s">
-        <v>18</v>
+      <c r="B380" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C380" s="11" t="s">
         <v>6</v>
@@ -32139,8 +32139,8 @@
       <c r="A381" t="s">
         <v>416</v>
       </c>
-      <c r="B381" s="11" t="s">
-        <v>18</v>
+      <c r="B381" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C381" s="11" t="s">
         <v>6</v>
@@ -32216,8 +32216,8 @@
       <c r="A382" t="s">
         <v>417</v>
       </c>
-      <c r="B382" s="11" t="s">
-        <v>18</v>
+      <c r="B382" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C382" s="11" t="s">
         <v>6</v>
@@ -32293,8 +32293,8 @@
       <c r="A383" t="s">
         <v>418</v>
       </c>
-      <c r="B383" s="11" t="s">
-        <v>18</v>
+      <c r="B383" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C383" s="11" t="s">
         <v>6</v>
@@ -32370,8 +32370,8 @@
       <c r="A384" t="s">
         <v>419</v>
       </c>
-      <c r="B384" s="11" t="s">
-        <v>18</v>
+      <c r="B384" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C384" s="11" t="s">
         <v>6</v>
@@ -32447,8 +32447,8 @@
       <c r="A385" t="s">
         <v>420</v>
       </c>
-      <c r="B385" s="11" t="s">
-        <v>18</v>
+      <c r="B385" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C385" s="11" t="s">
         <v>6</v>
@@ -32524,8 +32524,8 @@
       <c r="A386" t="s">
         <v>421</v>
       </c>
-      <c r="B386" s="11" t="s">
-        <v>18</v>
+      <c r="B386" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C386" s="11" t="s">
         <v>6</v>
@@ -32601,8 +32601,8 @@
       <c r="A387" t="s">
         <v>422</v>
       </c>
-      <c r="B387" s="11" t="s">
-        <v>18</v>
+      <c r="B387" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C387" s="11" t="s">
         <v>6</v>
@@ -32678,8 +32678,8 @@
       <c r="A388" t="s">
         <v>423</v>
       </c>
-      <c r="B388" s="11" t="s">
-        <v>18</v>
+      <c r="B388" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C388" s="11" t="s">
         <v>6</v>
@@ -32755,8 +32755,8 @@
       <c r="A389" t="s">
         <v>424</v>
       </c>
-      <c r="B389" s="11" t="s">
-        <v>18</v>
+      <c r="B389" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C389" s="11" t="s">
         <v>6</v>
@@ -32832,8 +32832,8 @@
       <c r="A390" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B390" s="11" t="s">
-        <v>18</v>
+      <c r="B390" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C390" s="11" t="s">
         <v>6</v>
@@ -32909,8 +32909,8 @@
       <c r="A391" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B391" s="11" t="s">
-        <v>18</v>
+      <c r="B391" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C391" s="11" t="s">
         <v>6</v>
@@ -32986,8 +32986,8 @@
       <c r="A392" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B392" s="11" t="s">
-        <v>18</v>
+      <c r="B392" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C392" s="11" t="s">
         <v>6</v>
@@ -33063,8 +33063,8 @@
       <c r="A393" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B393" s="11" t="s">
-        <v>18</v>
+      <c r="B393" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>6</v>
@@ -33140,8 +33140,8 @@
       <c r="A394" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B394" s="11" t="s">
-        <v>18</v>
+      <c r="B394" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C394" s="11" t="s">
         <v>6</v>
@@ -33217,8 +33217,8 @@
       <c r="A395" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B395" s="11" t="s">
-        <v>18</v>
+      <c r="B395" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C395" s="11" t="s">
         <v>6</v>
@@ -33294,8 +33294,8 @@
       <c r="A396" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B396" s="11" t="s">
-        <v>18</v>
+      <c r="B396" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C396" s="11" t="s">
         <v>6</v>
@@ -33371,8 +33371,8 @@
       <c r="A397" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B397" s="11" t="s">
-        <v>18</v>
+      <c r="B397" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C397" s="11" t="s">
         <v>6</v>
@@ -33448,8 +33448,8 @@
       <c r="A398" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B398" s="11" t="s">
-        <v>18</v>
+      <c r="B398" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C398" s="11" t="s">
         <v>6</v>
@@ -33525,8 +33525,8 @@
       <c r="A399" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B399" s="11" t="s">
-        <v>18</v>
+      <c r="B399" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C399" s="11" t="s">
         <v>6</v>
@@ -33602,8 +33602,8 @@
       <c r="A400" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B400" s="11" t="s">
-        <v>18</v>
+      <c r="B400" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C400" s="11" t="s">
         <v>6</v>
@@ -33679,8 +33679,8 @@
       <c r="A401" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B401" s="11" t="s">
-        <v>18</v>
+      <c r="B401" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C401" s="11" t="s">
         <v>6</v>
@@ -33756,8 +33756,8 @@
       <c r="A402" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B402" s="11" t="s">
-        <v>18</v>
+      <c r="B402" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C402" s="11" t="s">
         <v>6</v>
@@ -33833,8 +33833,8 @@
       <c r="A403" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B403" s="11" t="s">
-        <v>18</v>
+      <c r="B403" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C403" s="11" t="s">
         <v>6</v>
@@ -33910,8 +33910,8 @@
       <c r="A404" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B404" s="11" t="s">
-        <v>18</v>
+      <c r="B404" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C404" s="11" t="s">
         <v>6</v>
@@ -33987,8 +33987,8 @@
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B405" s="11" t="s">
-        <v>18</v>
+      <c r="B405" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C405" s="11" t="s">
         <v>6</v>
@@ -34064,8 +34064,8 @@
       <c r="A406" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B406" s="11" t="s">
-        <v>18</v>
+      <c r="B406" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C406" s="11" t="s">
         <v>6</v>
@@ -34141,8 +34141,8 @@
       <c r="A407" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B407" s="11" t="s">
-        <v>18</v>
+      <c r="B407" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C407" s="11" t="s">
         <v>6</v>
@@ -34218,8 +34218,8 @@
       <c r="A408" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B408" s="11" t="s">
-        <v>18</v>
+      <c r="B408" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C408" s="11" t="s">
         <v>6</v>
@@ -34295,8 +34295,8 @@
       <c r="A409" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B409" s="11" t="s">
-        <v>18</v>
+      <c r="B409" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C409" s="11" t="s">
         <v>6</v>
@@ -34372,8 +34372,8 @@
       <c r="A410" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B410" s="11" t="s">
-        <v>18</v>
+      <c r="B410" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C410" s="11" t="s">
         <v>6</v>
@@ -34449,8 +34449,8 @@
       <c r="A411" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B411" s="11" t="s">
-        <v>18</v>
+      <c r="B411" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C411" s="11" t="s">
         <v>6</v>
@@ -34526,8 +34526,8 @@
       <c r="A412" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B412" s="11" t="s">
-        <v>18</v>
+      <c r="B412" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C412" s="11" t="s">
         <v>6</v>
@@ -34603,8 +34603,8 @@
       <c r="A413" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B413" s="11" t="s">
-        <v>18</v>
+      <c r="B413" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C413" s="11" t="s">
         <v>6</v>
@@ -34680,8 +34680,8 @@
       <c r="A414" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B414" s="11" t="s">
-        <v>18</v>
+      <c r="B414" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C414" s="11" t="s">
         <v>6</v>
@@ -34757,8 +34757,8 @@
       <c r="A415" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B415" s="11" t="s">
-        <v>18</v>
+      <c r="B415" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C415" s="11" t="s">
         <v>6</v>
@@ -34834,8 +34834,8 @@
       <c r="A416" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B416" s="11" t="s">
-        <v>18</v>
+      <c r="B416" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C416" s="11" t="s">
         <v>6</v>
@@ -34911,8 +34911,8 @@
       <c r="A417" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B417" s="11" t="s">
-        <v>18</v>
+      <c r="B417" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C417" s="11" t="s">
         <v>6</v>
@@ -34988,8 +34988,8 @@
       <c r="A418" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B418" s="11" t="s">
-        <v>18</v>
+      <c r="B418" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C418" s="11" t="s">
         <v>6</v>
@@ -35065,8 +35065,8 @@
       <c r="A419" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B419" s="11" t="s">
-        <v>18</v>
+      <c r="B419" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C419" s="11" t="s">
         <v>6</v>
@@ -35142,8 +35142,8 @@
       <c r="A420" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B420" s="11" t="s">
-        <v>18</v>
+      <c r="B420" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C420" s="11" t="s">
         <v>6</v>
@@ -35219,8 +35219,8 @@
       <c r="A421" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B421" s="11" t="s">
-        <v>18</v>
+      <c r="B421" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C421" s="11" t="s">
         <v>6</v>
@@ -35296,8 +35296,8 @@
       <c r="A422" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B422" s="11" t="s">
-        <v>18</v>
+      <c r="B422" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C422" s="11" t="s">
         <v>6</v>
@@ -35373,8 +35373,8 @@
       <c r="A423" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B423" s="11" t="s">
-        <v>18</v>
+      <c r="B423" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C423" s="11" t="s">
         <v>6</v>
@@ -35450,8 +35450,8 @@
       <c r="A424" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B424" s="11" t="s">
-        <v>18</v>
+      <c r="B424" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C424" s="11" t="s">
         <v>6</v>
@@ -35527,8 +35527,8 @@
       <c r="A425" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B425" s="11" t="s">
-        <v>18</v>
+      <c r="B425" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C425" s="11" t="s">
         <v>6</v>
@@ -35604,8 +35604,8 @@
       <c r="A426" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B426" s="11" t="s">
-        <v>18</v>
+      <c r="B426" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C426" s="11" t="s">
         <v>6</v>
@@ -35681,8 +35681,8 @@
       <c r="A427" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B427" s="11" t="s">
-        <v>18</v>
+      <c r="B427" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C427" s="11" t="s">
         <v>6</v>
@@ -35758,8 +35758,8 @@
       <c r="A428" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B428" s="11" t="s">
-        <v>18</v>
+      <c r="B428" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C428" s="11" t="s">
         <v>6</v>
@@ -35835,8 +35835,8 @@
       <c r="A429" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B429" s="11" t="s">
-        <v>18</v>
+      <c r="B429" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C429" s="11" t="s">
         <v>6</v>
@@ -35912,8 +35912,8 @@
       <c r="A430" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B430" s="11" t="s">
-        <v>18</v>
+      <c r="B430" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C430" s="11" t="s">
         <v>6</v>
@@ -35989,8 +35989,8 @@
       <c r="A431" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B431" s="11" t="s">
-        <v>18</v>
+      <c r="B431" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C431" s="11" t="s">
         <v>6</v>
@@ -36066,8 +36066,8 @@
       <c r="A432" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B432" s="11" t="s">
-        <v>18</v>
+      <c r="B432" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C432" s="11" t="s">
         <v>6</v>
@@ -36143,8 +36143,8 @@
       <c r="A433" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B433" s="11" t="s">
-        <v>18</v>
+      <c r="B433" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C433" s="11" t="s">
         <v>6</v>
@@ -36220,8 +36220,8 @@
       <c r="A434" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B434" s="11" t="s">
-        <v>18</v>
+      <c r="B434" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C434" s="11" t="s">
         <v>6</v>
@@ -36297,8 +36297,8 @@
       <c r="A435" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B435" s="11" t="s">
-        <v>18</v>
+      <c r="B435" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C435" s="11" t="s">
         <v>6</v>
@@ -36374,8 +36374,8 @@
       <c r="A436" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B436" s="11" t="s">
-        <v>18</v>
+      <c r="B436" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C436" s="11" t="s">
         <v>6</v>
@@ -36451,8 +36451,8 @@
       <c r="A437" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B437" s="11" t="s">
-        <v>18</v>
+      <c r="B437" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C437" s="11" t="s">
         <v>6</v>
@@ -36528,8 +36528,8 @@
       <c r="A438" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B438" s="11" t="s">
-        <v>18</v>
+      <c r="B438" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C438" s="11" t="s">
         <v>6</v>
@@ -36605,8 +36605,8 @@
       <c r="A439" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B439" s="11" t="s">
-        <v>18</v>
+      <c r="B439" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C439" s="11" t="s">
         <v>6</v>
@@ -36682,8 +36682,8 @@
       <c r="A440" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B440" s="11" t="s">
-        <v>18</v>
+      <c r="B440" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C440" s="11" t="s">
         <v>6</v>
@@ -36759,8 +36759,8 @@
       <c r="A441" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B441" s="11" t="s">
-        <v>18</v>
+      <c r="B441" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C441" s="11" t="s">
         <v>6</v>
@@ -36836,8 +36836,8 @@
       <c r="A442" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B442" s="11" t="s">
-        <v>18</v>
+      <c r="B442" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C442" s="11" t="s">
         <v>6</v>
@@ -36913,8 +36913,8 @@
       <c r="A443" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B443" s="11" t="s">
-        <v>18</v>
+      <c r="B443" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C443" s="11" t="s">
         <v>6</v>
@@ -36990,8 +36990,8 @@
       <c r="A444" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B444" s="11" t="s">
-        <v>18</v>
+      <c r="B444" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C444" s="11" t="s">
         <v>6</v>
@@ -37067,8 +37067,8 @@
       <c r="A445" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B445" s="11" t="s">
-        <v>18</v>
+      <c r="B445" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C445" s="11" t="s">
         <v>6</v>
@@ -37144,8 +37144,8 @@
       <c r="A446" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B446" s="11" t="s">
-        <v>18</v>
+      <c r="B446" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C446" s="11" t="s">
         <v>6</v>
@@ -37221,8 +37221,8 @@
       <c r="A447" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B447" s="11" t="s">
-        <v>18</v>
+      <c r="B447" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C447" s="11" t="s">
         <v>6</v>
@@ -37298,8 +37298,8 @@
       <c r="A448" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B448" s="11" t="s">
-        <v>18</v>
+      <c r="B448" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C448" s="11" t="s">
         <v>6</v>
@@ -37375,8 +37375,8 @@
       <c r="A449" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B449" s="11" t="s">
-        <v>18</v>
+      <c r="B449" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C449" s="11" t="s">
         <v>6</v>
@@ -37452,8 +37452,8 @@
       <c r="A450" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B450" s="11" t="s">
-        <v>18</v>
+      <c r="B450" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C450" s="11" t="s">
         <v>6</v>
@@ -37529,8 +37529,8 @@
       <c r="A451" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B451" s="11" t="s">
-        <v>18</v>
+      <c r="B451" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C451" s="11" t="s">
         <v>6</v>
@@ -37606,8 +37606,8 @@
       <c r="A452" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B452" s="11" t="s">
-        <v>18</v>
+      <c r="B452" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C452" s="11" t="s">
         <v>6</v>
@@ -37683,8 +37683,8 @@
       <c r="A453" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B453" s="11" t="s">
-        <v>18</v>
+      <c r="B453" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C453" s="11" t="s">
         <v>6</v>
@@ -37760,8 +37760,8 @@
       <c r="A454" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B454" s="11" t="s">
-        <v>18</v>
+      <c r="B454" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C454" s="11" t="s">
         <v>6</v>
@@ -37837,8 +37837,8 @@
       <c r="A455" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B455" s="11" t="s">
-        <v>18</v>
+      <c r="B455" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C455" s="11" t="s">
         <v>6</v>
@@ -37914,8 +37914,8 @@
       <c r="A456" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B456" s="11" t="s">
-        <v>18</v>
+      <c r="B456" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C456" s="11" t="s">
         <v>6</v>
@@ -37991,8 +37991,8 @@
       <c r="A457" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B457" s="11" t="s">
-        <v>18</v>
+      <c r="B457" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C457" s="11" t="s">
         <v>6</v>
@@ -38068,8 +38068,8 @@
       <c r="A458" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B458" s="11" t="s">
-        <v>18</v>
+      <c r="B458" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C458" s="11" t="s">
         <v>6</v>
@@ -38145,8 +38145,8 @@
       <c r="A459" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B459" s="11" t="s">
-        <v>18</v>
+      <c r="B459" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C459" s="11" t="s">
         <v>6</v>
@@ -38222,8 +38222,8 @@
       <c r="A460" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B460" s="11" t="s">
-        <v>18</v>
+      <c r="B460" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C460" s="11" t="s">
         <v>6</v>
@@ -38299,8 +38299,8 @@
       <c r="A461" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B461" s="11" t="s">
-        <v>18</v>
+      <c r="B461" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C461" s="11" t="s">
         <v>6</v>
@@ -38376,8 +38376,8 @@
       <c r="A462" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B462" s="11" t="s">
-        <v>18</v>
+      <c r="B462" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C462" s="11" t="s">
         <v>6</v>
@@ -38453,8 +38453,8 @@
       <c r="A463" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B463" s="11" t="s">
-        <v>18</v>
+      <c r="B463" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C463" s="11" t="s">
         <v>6</v>
@@ -38530,8 +38530,8 @@
       <c r="A464" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B464" s="11" t="s">
-        <v>18</v>
+      <c r="B464" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C464" s="11" t="s">
         <v>6</v>
@@ -38607,8 +38607,8 @@
       <c r="A465" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B465" s="11" t="s">
-        <v>18</v>
+      <c r="B465" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C465" s="11" t="s">
         <v>6</v>
@@ -38684,8 +38684,8 @@
       <c r="A466" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B466" s="11" t="s">
-        <v>18</v>
+      <c r="B466" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C466" s="11" t="s">
         <v>6</v>
@@ -38761,8 +38761,8 @@
       <c r="A467" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B467" s="11" t="s">
-        <v>18</v>
+      <c r="B467" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C467" s="11" t="s">
         <v>6</v>
@@ -38838,8 +38838,8 @@
       <c r="A468" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B468" s="11" t="s">
-        <v>18</v>
+      <c r="B468" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C468" s="11" t="s">
         <v>6</v>
@@ -38915,8 +38915,8 @@
       <c r="A469" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B469" s="11" t="s">
-        <v>18</v>
+      <c r="B469" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C469" s="11" t="s">
         <v>6</v>
@@ -38992,8 +38992,8 @@
       <c r="A470" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B470" s="11" t="s">
-        <v>18</v>
+      <c r="B470" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C470" s="11" t="s">
         <v>6</v>
@@ -39069,8 +39069,8 @@
       <c r="A471" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B471" s="11" t="s">
-        <v>18</v>
+      <c r="B471" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C471" s="11" t="s">
         <v>6</v>
@@ -39146,8 +39146,8 @@
       <c r="A472" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B472" s="11" t="s">
-        <v>18</v>
+      <c r="B472" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C472" s="11" t="s">
         <v>6</v>
@@ -39223,8 +39223,8 @@
       <c r="A473" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B473" s="11" t="s">
-        <v>18</v>
+      <c r="B473" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C473" s="11" t="s">
         <v>6</v>
@@ -39300,8 +39300,8 @@
       <c r="A474" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B474" s="11" t="s">
-        <v>18</v>
+      <c r="B474" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C474" s="11" t="s">
         <v>6</v>
@@ -39377,8 +39377,8 @@
       <c r="A475" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B475" s="11" t="s">
-        <v>18</v>
+      <c r="B475" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C475" s="11" t="s">
         <v>6</v>
@@ -39454,8 +39454,8 @@
       <c r="A476" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B476" s="11" t="s">
-        <v>18</v>
+      <c r="B476" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C476" s="11" t="s">
         <v>6</v>
@@ -39531,8 +39531,8 @@
       <c r="A477" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B477" s="11" t="s">
-        <v>18</v>
+      <c r="B477" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C477" s="11" t="s">
         <v>6</v>
@@ -39608,8 +39608,8 @@
       <c r="A478" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B478" s="11" t="s">
-        <v>18</v>
+      <c r="B478" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C478" s="11" t="s">
         <v>6</v>
@@ -39685,8 +39685,8 @@
       <c r="A479" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B479" s="11" t="s">
-        <v>18</v>
+      <c r="B479" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C479" s="11" t="s">
         <v>6</v>
@@ -39762,8 +39762,8 @@
       <c r="A480" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B480" s="11" t="s">
-        <v>18</v>
+      <c r="B480" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C480" s="11" t="s">
         <v>6</v>
@@ -39839,8 +39839,8 @@
       <c r="A481" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B481" s="11" t="s">
-        <v>18</v>
+      <c r="B481" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C481" s="11" t="s">
         <v>6</v>
@@ -39916,8 +39916,8 @@
       <c r="A482" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B482" s="11" t="s">
-        <v>18</v>
+      <c r="B482" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C482" s="11" t="s">
         <v>6</v>
@@ -39993,8 +39993,8 @@
       <c r="A483" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B483" s="11" t="s">
-        <v>18</v>
+      <c r="B483" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C483" s="11" t="s">
         <v>6</v>
@@ -40070,8 +40070,8 @@
       <c r="A484" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B484" s="11" t="s">
-        <v>18</v>
+      <c r="B484" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C484" s="11" t="s">
         <v>6</v>
@@ -40147,8 +40147,8 @@
       <c r="A485" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B485" s="11" t="s">
-        <v>18</v>
+      <c r="B485" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C485" s="11" t="s">
         <v>6</v>
@@ -40224,8 +40224,8 @@
       <c r="A486" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B486" s="11" t="s">
-        <v>18</v>
+      <c r="B486" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C486" s="11" t="s">
         <v>6</v>
@@ -40301,8 +40301,8 @@
       <c r="A487" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B487" s="11" t="s">
-        <v>18</v>
+      <c r="B487" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C487" s="11" t="s">
         <v>6</v>
@@ -40378,8 +40378,8 @@
       <c r="A488" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B488" s="11" t="s">
-        <v>18</v>
+      <c r="B488" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C488" s="11" t="s">
         <v>6</v>
@@ -40455,8 +40455,8 @@
       <c r="A489" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B489" s="11" t="s">
-        <v>18</v>
+      <c r="B489" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C489" s="11" t="s">
         <v>6</v>
@@ -40532,8 +40532,8 @@
       <c r="A490" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B490" s="11" t="s">
-        <v>18</v>
+      <c r="B490" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C490" s="11" t="s">
         <v>6</v>
@@ -40609,8 +40609,8 @@
       <c r="A491" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B491" s="11" t="s">
-        <v>18</v>
+      <c r="B491" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C491" s="11" t="s">
         <v>6</v>
@@ -40686,8 +40686,8 @@
       <c r="A492" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B492" s="11" t="s">
-        <v>18</v>
+      <c r="B492" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C492" s="11" t="s">
         <v>6</v>
@@ -40763,8 +40763,8 @@
       <c r="A493" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B493" s="11" t="s">
-        <v>18</v>
+      <c r="B493" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C493" s="11" t="s">
         <v>6</v>
@@ -40840,8 +40840,8 @@
       <c r="A494" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B494" s="11" t="s">
-        <v>18</v>
+      <c r="B494" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C494" s="11" t="s">
         <v>6</v>
@@ -40917,8 +40917,8 @@
       <c r="A495" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B495" s="11" t="s">
-        <v>18</v>
+      <c r="B495" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C495" s="11" t="s">
         <v>6</v>
@@ -40994,8 +40994,8 @@
       <c r="A496" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B496" s="11" t="s">
-        <v>18</v>
+      <c r="B496" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C496" s="11" t="s">
         <v>6</v>
@@ -41071,8 +41071,8 @@
       <c r="A497" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B497" s="11" t="s">
-        <v>18</v>
+      <c r="B497" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C497" s="11" t="s">
         <v>6</v>
@@ -41148,8 +41148,8 @@
       <c r="A498" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B498" s="11" t="s">
-        <v>18</v>
+      <c r="B498" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C498" s="11" t="s">
         <v>6</v>
@@ -41225,8 +41225,8 @@
       <c r="A499" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B499" s="11" t="s">
-        <v>18</v>
+      <c r="B499" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C499" s="11" t="s">
         <v>6</v>
@@ -41302,8 +41302,8 @@
       <c r="A500" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B500" s="11" t="s">
-        <v>18</v>
+      <c r="B500" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C500" s="11" t="s">
         <v>6</v>
@@ -41379,8 +41379,8 @@
       <c r="A501" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B501" s="11" t="s">
-        <v>18</v>
+      <c r="B501" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C501" s="11" t="s">
         <v>6</v>
@@ -41456,8 +41456,8 @@
       <c r="A502" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B502" s="11" t="s">
-        <v>18</v>
+      <c r="B502" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C502" s="11" t="s">
         <v>6</v>
@@ -41533,8 +41533,8 @@
       <c r="A503" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B503" s="11" t="s">
-        <v>18</v>
+      <c r="B503" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C503" s="11" t="s">
         <v>6</v>
@@ -41610,8 +41610,8 @@
       <c r="A504" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B504" s="11" t="s">
-        <v>18</v>
+      <c r="B504" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C504" s="11" t="s">
         <v>6</v>
@@ -41687,8 +41687,8 @@
       <c r="A505" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B505" s="11" t="s">
-        <v>18</v>
+      <c r="B505" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C505" s="11" t="s">
         <v>6</v>
@@ -41764,8 +41764,8 @@
       <c r="A506" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B506" s="11" t="s">
-        <v>18</v>
+      <c r="B506" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C506" s="11" t="s">
         <v>6</v>
@@ -41841,8 +41841,8 @@
       <c r="A507" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B507" s="11" t="s">
-        <v>18</v>
+      <c r="B507" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C507" s="11" t="s">
         <v>6</v>
@@ -41918,8 +41918,8 @@
       <c r="A508" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B508" s="11" t="s">
-        <v>18</v>
+      <c r="B508" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C508" s="11" t="s">
         <v>6</v>
@@ -41995,8 +41995,8 @@
       <c r="A509" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B509" s="11" t="s">
-        <v>18</v>
+      <c r="B509" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C509" s="11" t="s">
         <v>6</v>
@@ -42072,8 +42072,8 @@
       <c r="A510" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B510" s="11" t="s">
-        <v>18</v>
+      <c r="B510" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C510" s="11" t="s">
         <v>6</v>
@@ -42149,8 +42149,8 @@
       <c r="A511" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B511" s="11" t="s">
-        <v>18</v>
+      <c r="B511" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C511" s="11" t="s">
         <v>6</v>
@@ -42226,8 +42226,8 @@
       <c r="A512" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B512" s="11" t="s">
-        <v>18</v>
+      <c r="B512" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C512" s="11" t="s">
         <v>6</v>
@@ -42303,8 +42303,8 @@
       <c r="A513" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B513" s="11" t="s">
-        <v>18</v>
+      <c r="B513" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C513" s="11" t="s">
         <v>6</v>
@@ -42380,8 +42380,8 @@
       <c r="A514" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B514" s="11" t="s">
-        <v>18</v>
+      <c r="B514" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C514" s="11" t="s">
         <v>6</v>
@@ -42457,8 +42457,8 @@
       <c r="A515" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B515" s="11" t="s">
-        <v>18</v>
+      <c r="B515" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C515" s="11" t="s">
         <v>6</v>
@@ -42534,8 +42534,8 @@
       <c r="A516" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B516" s="11" t="s">
-        <v>18</v>
+      <c r="B516" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C516" s="11" t="s">
         <v>6</v>
@@ -42611,8 +42611,8 @@
       <c r="A517" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B517" s="11" t="s">
-        <v>18</v>
+      <c r="B517" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C517" s="11" t="s">
         <v>6</v>
@@ -42688,8 +42688,8 @@
       <c r="A518" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B518" s="11" t="s">
-        <v>18</v>
+      <c r="B518" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C518" s="11" t="s">
         <v>6</v>
@@ -42765,8 +42765,8 @@
       <c r="A519" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B519" s="11" t="s">
-        <v>18</v>
+      <c r="B519" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C519" s="11" t="s">
         <v>6</v>
@@ -42842,8 +42842,8 @@
       <c r="A520" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B520" s="11" t="s">
-        <v>18</v>
+      <c r="B520" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C520" s="11" t="s">
         <v>6</v>
@@ -42919,8 +42919,8 @@
       <c r="A521" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B521" s="11" t="s">
-        <v>18</v>
+      <c r="B521" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C521" s="11" t="s">
         <v>6</v>
@@ -42996,8 +42996,8 @@
       <c r="A522" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B522" s="11" t="s">
-        <v>18</v>
+      <c r="B522" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C522" s="11" t="s">
         <v>6</v>
@@ -43073,8 +43073,8 @@
       <c r="A523" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B523" s="11" t="s">
-        <v>18</v>
+      <c r="B523" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C523" s="11" t="s">
         <v>6</v>
@@ -43150,8 +43150,8 @@
       <c r="A524" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B524" s="11" t="s">
-        <v>18</v>
+      <c r="B524" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C524" s="11" t="s">
         <v>6</v>
@@ -43227,8 +43227,8 @@
       <c r="A525" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B525" s="11" t="s">
-        <v>18</v>
+      <c r="B525" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C525" s="11" t="s">
         <v>6</v>
@@ -43304,8 +43304,8 @@
       <c r="A526" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B526" s="11" t="s">
-        <v>18</v>
+      <c r="B526" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C526" s="11" t="s">
         <v>6</v>
@@ -43381,8 +43381,8 @@
       <c r="A527" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B527" s="11" t="s">
-        <v>18</v>
+      <c r="B527" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C527" s="11" t="s">
         <v>6</v>
@@ -43458,8 +43458,8 @@
       <c r="A528" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B528" s="11" t="s">
-        <v>18</v>
+      <c r="B528" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C528" s="11" t="s">
         <v>6</v>
@@ -43535,8 +43535,8 @@
       <c r="A529" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B529" s="11" t="s">
-        <v>18</v>
+      <c r="B529" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C529" s="11" t="s">
         <v>6</v>
@@ -43612,8 +43612,8 @@
       <c r="A530" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B530" s="11" t="s">
-        <v>18</v>
+      <c r="B530" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C530" s="11" t="s">
         <v>6</v>
@@ -43689,8 +43689,8 @@
       <c r="A531" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B531" s="11" t="s">
-        <v>18</v>
+      <c r="B531" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C531" s="11" t="s">
         <v>6</v>
@@ -43766,8 +43766,8 @@
       <c r="A532" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B532" s="11" t="s">
-        <v>18</v>
+      <c r="B532" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C532" s="11" t="s">
         <v>6</v>
@@ -43843,8 +43843,8 @@
       <c r="A533" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B533" s="11" t="s">
-        <v>18</v>
+      <c r="B533" s="30" t="s">
+        <v>2</v>
       </c>
       <c r="C533" s="11" t="s">
         <v>6</v>
@@ -43925,7 +43925,7 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A533">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43935,31 +43935,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$D$3:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Settings!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
+          <xm:sqref>B534:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Settings!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Settings!$C$3:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Settings!$E$3:$E$4</xm:f>
           </x14:formula1>
@@ -43972,7 +43972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-VW-B2-ESS-Rural/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-VV-VW-B2-ESS-Rural/pyControllerList/PV Controller.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72D4B76-3655-9F45-9346-395D6755A65F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A475FE-68D6-E34E-8B68-D083D0A76B09}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1874,7 +1874,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1964,12 +1964,6 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2F75B5"/>
-        <bgColor rgb="FF2F75B5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2006,7 +2000,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2071,7 +2065,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="20% - Accent1" xfId="11" builtinId="30"/>
@@ -2103,18 +2096,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
         <name val="Courier New"/>
-        <family val="1"/>
+        <family val="3"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF2F75B5"/>
-          <bgColor rgb="FF2F75B5"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2151,78 +2138,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Courier New"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2559,6 +2474,85 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF2F75B5"/>
+          <bgColor rgb="FF2F75B5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="13.2"/>
         <color theme="1"/>
         <name val="Courier New"/>
@@ -2594,24 +2588,24 @@
   <autoFilter ref="A2:X533" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Controlled PV" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="pf" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pfMin" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pfMax" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pmin" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pmax" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="uMin" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="uDbMin" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="uDbMax" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="uMax" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QlimPU" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PFlim" dataDxfId="11"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Enable PF limit" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="uMinC" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="uMaxC" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="PminVW" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VWtype" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="pf" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pfMin" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pfMax" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pmin" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pmax" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="uMin" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="uDbMin" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="uDbMax" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="uMax" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QlimPU" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PFlim" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Enable PF limit" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="uMinC" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="uMaxC" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="PminVW" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VWtype" dataDxfId="0"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="%PCutin" dataDxfId="5"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="%PCutout" dataDxfId="4"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Efficiency" dataDxfId="3"/>
@@ -2887,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y533"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3033,7 +3027,7 @@
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -3110,7 +3104,7 @@
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -3187,7 +3181,7 @@
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -3264,7 +3258,7 @@
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -3341,7 +3335,7 @@
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -3418,7 +3412,7 @@
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -3495,7 +3489,7 @@
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -3572,7 +3566,7 @@
       <c r="A10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -3649,7 +3643,7 @@
       <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -3726,7 +3720,7 @@
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -3803,7 +3797,7 @@
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -3880,7 +3874,7 @@
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -3957,7 +3951,7 @@
       <c r="A15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -4034,7 +4028,7 @@
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -4111,7 +4105,7 @@
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -4188,7 +4182,7 @@
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -4265,7 +4259,7 @@
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -4342,7 +4336,7 @@
       <c r="A20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -4419,7 +4413,7 @@
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -4496,7 +4490,7 @@
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -4573,7 +4567,7 @@
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -4650,7 +4644,7 @@
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -4727,7 +4721,7 @@
       <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -4804,7 +4798,7 @@
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -4881,7 +4875,7 @@
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -4958,7 +4952,7 @@
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -5035,7 +5029,7 @@
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -5112,7 +5106,7 @@
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -5189,7 +5183,7 @@
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -5266,7 +5260,7 @@
       <c r="A32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -5343,7 +5337,7 @@
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -5420,7 +5414,7 @@
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -5497,7 +5491,7 @@
       <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -5574,7 +5568,7 @@
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -5651,7 +5645,7 @@
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -5728,7 +5722,7 @@
       <c r="A38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -5805,7 +5799,7 @@
       <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -5882,7 +5876,7 @@
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -5959,7 +5953,7 @@
       <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -6036,7 +6030,7 @@
       <c r="A42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -6113,7 +6107,7 @@
       <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -6190,7 +6184,7 @@
       <c r="A44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -6267,7 +6261,7 @@
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -6344,7 +6338,7 @@
       <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -6421,7 +6415,7 @@
       <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -6498,7 +6492,7 @@
       <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -6575,7 +6569,7 @@
       <c r="A49" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -6652,7 +6646,7 @@
       <c r="A50" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -6729,7 +6723,7 @@
       <c r="A51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -6806,7 +6800,7 @@
       <c r="A52" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -6883,7 +6877,7 @@
       <c r="A53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -6960,7 +6954,7 @@
       <c r="A54" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -7037,7 +7031,7 @@
       <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -7114,7 +7108,7 @@
       <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -7191,7 +7185,7 @@
       <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -7268,7 +7262,7 @@
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -7345,7 +7339,7 @@
       <c r="A59" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -7422,7 +7416,7 @@
       <c r="A60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -7499,7 +7493,7 @@
       <c r="A61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="11" t="s">
@@ -7576,7 +7570,7 @@
       <c r="A62" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -7653,7 +7647,7 @@
       <c r="A63" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C63" s="11" t="s">
@@ -7730,7 +7724,7 @@
       <c r="A64" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -7807,7 +7801,7 @@
       <c r="A65" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="11" t="s">
@@ -7884,7 +7878,7 @@
       <c r="A66" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -7961,7 +7955,7 @@
       <c r="A67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -8038,7 +8032,7 @@
       <c r="A68" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -8115,7 +8109,7 @@
       <c r="A69" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -8192,7 +8186,7 @@
       <c r="A70" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -8269,7 +8263,7 @@
       <c r="A71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -8346,7 +8340,7 @@
       <c r="A72" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -8423,7 +8417,7 @@
       <c r="A73" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -8500,7 +8494,7 @@
       <c r="A74" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -8577,7 +8571,7 @@
       <c r="A75" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C75" s="11" t="s">
@@ -8654,7 +8648,7 @@
       <c r="A76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="11" t="s">
@@ -8731,7 +8725,7 @@
       <c r="A77" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -8808,7 +8802,7 @@
       <c r="A78" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -8885,7 +8879,7 @@
       <c r="A79" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C79" s="11" t="s">
@@ -8962,7 +8956,7 @@
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="11" t="s">
@@ -9039,7 +9033,7 @@
       <c r="A81" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="11" t="s">
@@ -9116,7 +9110,7 @@
       <c r="A82" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="11" t="s">
@@ -9193,7 +9187,7 @@
       <c r="A83" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C83" s="11" t="s">
@@ -9270,7 +9264,7 @@
       <c r="A84" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="11" t="s">
@@ -9347,7 +9341,7 @@
       <c r="A85" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -9424,7 +9418,7 @@
       <c r="A86" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C86" s="11" t="s">
@@ -9501,7 +9495,7 @@
       <c r="A87" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -9578,7 +9572,7 @@
       <c r="A88" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -9655,7 +9649,7 @@
       <c r="A89" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -9732,7 +9726,7 @@
       <c r="A90" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -9809,7 +9803,7 @@
       <c r="A91" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="11" t="s">
@@ -9886,7 +9880,7 @@
       <c r="A92" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -9963,7 +9957,7 @@
       <c r="A93" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="30" t="s">
+      <c r="B93" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -10040,7 +10034,7 @@
       <c r="A94" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -10117,7 +10111,7 @@
       <c r="A95" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -10194,7 +10188,7 @@
       <c r="A96" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -10271,7 +10265,7 @@
       <c r="A97" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="11" t="s">
@@ -10348,7 +10342,7 @@
       <c r="A98" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -10425,7 +10419,7 @@
       <c r="A99" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C99" s="11" t="s">
@@ -10502,7 +10496,7 @@
       <c r="A100" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -10579,7 +10573,7 @@
       <c r="A101" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B101" s="30" t="s">
+      <c r="B101" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -10656,7 +10650,7 @@
       <c r="A102" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B102" s="30" t="s">
+      <c r="B102" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C102" s="11" t="s">
@@ -10733,7 +10727,7 @@
       <c r="A103" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C103" s="11" t="s">
@@ -10810,7 +10804,7 @@
       <c r="A104" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="30" t="s">
+      <c r="B104" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="11" t="s">
@@ -10887,7 +10881,7 @@
       <c r="A105" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="11" t="s">
@@ -10964,7 +10958,7 @@
       <c r="A106" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B106" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C106" s="11" t="s">
@@ -11041,7 +11035,7 @@
       <c r="A107" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="11" t="s">
@@ -11118,7 +11112,7 @@
       <c r="A108" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -11195,7 +11189,7 @@
       <c r="A109" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="30" t="s">
+      <c r="B109" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="11" t="s">
@@ -11272,7 +11266,7 @@
       <c r="A110" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="30" t="s">
+      <c r="B110" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C110" s="11" t="s">
@@ -11349,7 +11343,7 @@
       <c r="A111" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="11" t="s">
@@ -11426,7 +11420,7 @@
       <c r="A112" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -11503,7 +11497,7 @@
       <c r="A113" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="11" t="s">
@@ -11580,7 +11574,7 @@
       <c r="A114" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -11657,7 +11651,7 @@
       <c r="A115" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="11" t="s">
@@ -11734,7 +11728,7 @@
       <c r="A116" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -11811,7 +11805,7 @@
       <c r="A117" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="11" t="s">
@@ -11888,7 +11882,7 @@
       <c r="A118" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -11965,7 +11959,7 @@
       <c r="A119" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C119" s="11" t="s">
@@ -12042,7 +12036,7 @@
       <c r="A120" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -12119,7 +12113,7 @@
       <c r="A121" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C121" s="11" t="s">
@@ -12196,7 +12190,7 @@
       <c r="A122" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -12273,7 +12267,7 @@
       <c r="A123" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C123" s="11" t="s">
@@ -12350,7 +12344,7 @@
       <c r="A124" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C124" s="11" t="s">
@@ -12427,7 +12421,7 @@
       <c r="A125" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C125" s="11" t="s">
@@ -12504,7 +12498,7 @@
       <c r="A126" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B126" s="30" t="s">
+      <c r="B126" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C126" s="11" t="s">
@@ -12581,7 +12575,7 @@
       <c r="A127" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B127" s="30" t="s">
+      <c r="B127" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C127" s="11" t="s">
@@ -12658,7 +12652,7 @@
       <c r="A128" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -12735,7 +12729,7 @@
       <c r="A129" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="30" t="s">
+      <c r="B129" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="11" t="s">
@@ -12812,7 +12806,7 @@
       <c r="A130" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="11" t="s">
@@ -12889,7 +12883,7 @@
       <c r="A131" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B131" s="30" t="s">
+      <c r="B131" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C131" s="11" t="s">
@@ -12966,7 +12960,7 @@
       <c r="A132" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C132" s="11" t="s">
@@ -13043,7 +13037,7 @@
       <c r="A133" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C133" s="11" t="s">
@@ -13120,7 +13114,7 @@
       <c r="A134" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B134" s="30" t="s">
+      <c r="B134" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="11" t="s">
@@ -13197,7 +13191,7 @@
       <c r="A135" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B135" s="30" t="s">
+      <c r="B135" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C135" s="11" t="s">
@@ -13274,7 +13268,7 @@
       <c r="A136" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C136" s="11" t="s">
@@ -13351,7 +13345,7 @@
       <c r="A137" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C137" s="11" t="s">
@@ -13428,7 +13422,7 @@
       <c r="A138" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B138" s="30" t="s">
+      <c r="B138" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C138" s="11" t="s">
@@ -13505,7 +13499,7 @@
       <c r="A139" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B139" s="30" t="s">
+      <c r="B139" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C139" s="11" t="s">
@@ -13582,7 +13576,7 @@
       <c r="A140" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C140" s="11" t="s">
@@ -13659,7 +13653,7 @@
       <c r="A141" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C141" s="11" t="s">
@@ -13736,7 +13730,7 @@
       <c r="A142" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B142" s="30" t="s">
+      <c r="B142" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C142" s="11" t="s">
@@ -13813,7 +13807,7 @@
       <c r="A143" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C143" s="11" t="s">
@@ -13890,7 +13884,7 @@
       <c r="A144" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B144" s="30" t="s">
+      <c r="B144" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C144" s="11" t="s">
@@ -13967,7 +13961,7 @@
       <c r="A145" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B145" s="30" t="s">
+      <c r="B145" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C145" s="11" t="s">
@@ -14044,7 +14038,7 @@
       <c r="A146" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="11" t="s">
@@ -14121,7 +14115,7 @@
       <c r="A147" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B147" s="30" t="s">
+      <c r="B147" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="11" t="s">
@@ -14198,7 +14192,7 @@
       <c r="A148" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="11" t="s">
@@ -14275,7 +14269,7 @@
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="11" t="s">
@@ -14352,7 +14346,7 @@
       <c r="A150" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C150" s="11" t="s">
@@ -14429,7 +14423,7 @@
       <c r="A151" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B151" s="30" t="s">
+      <c r="B151" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C151" s="11" t="s">
@@ -14506,7 +14500,7 @@
       <c r="A152" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B152" s="30" t="s">
+      <c r="B152" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="11" t="s">
@@ -14583,7 +14577,7 @@
       <c r="A153" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B153" s="30" t="s">
+      <c r="B153" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="11" t="s">
@@ -14660,7 +14654,7 @@
       <c r="A154" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C154" s="11" t="s">
@@ -14737,7 +14731,7 @@
       <c r="A155" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="30" t="s">
+      <c r="B155" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C155" s="11" t="s">
@@ -14814,7 +14808,7 @@
       <c r="A156" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B156" s="30" t="s">
+      <c r="B156" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C156" s="11" t="s">
@@ -14891,7 +14885,7 @@
       <c r="A157" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B157" s="30" t="s">
+      <c r="B157" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C157" s="11" t="s">
@@ -14968,7 +14962,7 @@
       <c r="A158" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C158" s="11" t="s">
@@ -15045,7 +15039,7 @@
       <c r="A159" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B159" s="30" t="s">
+      <c r="B159" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C159" s="11" t="s">
@@ -15122,7 +15116,7 @@
       <c r="A160" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B160" s="30" t="s">
+      <c r="B160" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="11" t="s">
@@ -15199,7 +15193,7 @@
       <c r="A161" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C161" s="11" t="s">
@@ -15276,7 +15270,7 @@
       <c r="A162" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C162" s="11" t="s">
@@ -15353,7 +15347,7 @@
       <c r="A163" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B163" s="30" t="s">
+      <c r="B163" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C163" s="11" t="s">
@@ -15430,7 +15424,7 @@
       <c r="A164" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C164" s="11" t="s">
@@ -15507,7 +15501,7 @@
       <c r="A165" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B165" s="30" t="s">
+      <c r="B165" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="11" t="s">
@@ -15584,7 +15578,7 @@
       <c r="A166" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B166" s="30" t="s">
+      <c r="B166" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C166" s="11" t="s">
@@ -15661,7 +15655,7 @@
       <c r="A167" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B167" s="30" t="s">
+      <c r="B167" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C167" s="11" t="s">
@@ -15738,7 +15732,7 @@
       <c r="A168" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B168" s="30" t="s">
+      <c r="B168" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C168" s="11" t="s">
@@ -15815,7 +15809,7 @@
       <c r="A169" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B169" s="30" t="s">
+      <c r="B169" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C169" s="11" t="s">
@@ -15892,7 +15886,7 @@
       <c r="A170" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B170" s="30" t="s">
+      <c r="B170" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C170" s="11" t="s">
@@ -15969,7 +15963,7 @@
       <c r="A171" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C171" s="11" t="s">
@@ -16046,7 +16040,7 @@
       <c r="A172" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B172" s="30" t="s">
+      <c r="B172" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="11" t="s">
@@ -16123,7 +16117,7 @@
       <c r="A173" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B173" s="30" t="s">
+      <c r="B173" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C173" s="11" t="s">
@@ -16200,7 +16194,7 @@
       <c r="A174" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C174" s="11" t="s">
@@ -16277,7 +16271,7 @@
       <c r="A175" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B175" s="30" t="s">
+      <c r="B175" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C175" s="11" t="s">
@@ -16354,7 +16348,7 @@
       <c r="A176" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B176" s="30" t="s">
+      <c r="B176" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C176" s="11" t="s">
@@ -16431,7 +16425,7 @@
       <c r="A177" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C177" s="11" t="s">
@@ -16508,7 +16502,7 @@
       <c r="A178" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B178" s="30" t="s">
+      <c r="B178" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C178" s="11" t="s">
@@ -16585,7 +16579,7 @@
       <c r="A179" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B179" s="30" t="s">
+      <c r="B179" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C179" s="11" t="s">
@@ -16662,7 +16656,7 @@
       <c r="A180" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B180" s="30" t="s">
+      <c r="B180" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -16739,7 +16733,7 @@
       <c r="A181" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B181" s="30" t="s">
+      <c r="B181" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C181" s="11" t="s">
@@ -16816,7 +16810,7 @@
       <c r="A182" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B182" s="30" t="s">
+      <c r="B182" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C182" s="11" t="s">
@@ -16893,7 +16887,7 @@
       <c r="A183" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C183" s="11" t="s">
@@ -16970,7 +16964,7 @@
       <c r="A184" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C184" s="11" t="s">
@@ -17047,7 +17041,7 @@
       <c r="A185" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C185" s="11" t="s">
@@ -17124,7 +17118,7 @@
       <c r="A186" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B186" s="30" t="s">
+      <c r="B186" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C186" s="11" t="s">
@@ -17201,7 +17195,7 @@
       <c r="A187" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B187" s="30" t="s">
+      <c r="B187" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C187" s="11" t="s">
@@ -17278,7 +17272,7 @@
       <c r="A188" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B188" s="30" t="s">
+      <c r="B188" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C188" s="11" t="s">
@@ -17355,7 +17349,7 @@
       <c r="A189" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C189" s="11" t="s">
@@ -17432,7 +17426,7 @@
       <c r="A190" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B190" s="30" t="s">
+      <c r="B190" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C190" s="11" t="s">
@@ -17509,7 +17503,7 @@
       <c r="A191" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B191" s="30" t="s">
+      <c r="B191" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C191" s="11" t="s">
@@ -17586,7 +17580,7 @@
       <c r="A192" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B192" s="30" t="s">
+      <c r="B192" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C192" s="11" t="s">
@@ -17663,7 +17657,7 @@
       <c r="A193" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B193" s="30" t="s">
+      <c r="B193" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C193" s="11" t="s">
@@ -17740,7 +17734,7 @@
       <c r="A194" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B194" s="30" t="s">
+      <c r="B194" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C194" s="11" t="s">
@@ -17817,7 +17811,7 @@
       <c r="A195" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C195" s="11" t="s">
@@ -17894,7 +17888,7 @@
       <c r="A196" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B196" s="30" t="s">
+      <c r="B196" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C196" s="11" t="s">
@@ -17971,7 +17965,7 @@
       <c r="A197" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B197" s="30" t="s">
+      <c r="B197" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C197" s="11" t="s">
@@ -18048,7 +18042,7 @@
       <c r="A198" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B198" s="30" t="s">
+      <c r="B198" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C198" s="11" t="s">
@@ -18125,7 +18119,7 @@
       <c r="A199" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B199" s="30" t="s">
+      <c r="B199" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C199" s="11" t="s">
@@ -18202,7 +18196,7 @@
       <c r="A200" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B200" s="30" t="s">
+      <c r="B200" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C200" s="11" t="s">
@@ -18279,7 +18273,7 @@
       <c r="A201" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C201" s="11" t="s">
@@ -18356,7 +18350,7 @@
       <c r="A202" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B202" s="30" t="s">
+      <c r="B202" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C202" s="11" t="s">
@@ -18433,7 +18427,7 @@
       <c r="A203" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B203" s="30" t="s">
+      <c r="B203" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C203" s="11" t="s">
@@ -18510,7 +18504,7 @@
       <c r="A204" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B204" s="30" t="s">
+      <c r="B204" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C204" s="11" t="s">
@@ -18587,7 +18581,7 @@
       <c r="A205" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B205" s="30" t="s">
+      <c r="B205" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C205" s="11" t="s">
@@ -18664,7 +18658,7 @@
       <c r="A206" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B206" s="30" t="s">
+      <c r="B206" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C206" s="11" t="s">
@@ -18741,7 +18735,7 @@
       <c r="A207" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C207" s="11" t="s">
@@ -18818,7 +18812,7 @@
       <c r="A208" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B208" s="30" t="s">
+      <c r="B208" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C208" s="11" t="s">
@@ -18895,7 +18889,7 @@
       <c r="A209" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B209" s="30" t="s">
+      <c r="B209" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C209" s="11" t="s">
@@ -18972,7 +18966,7 @@
       <c r="A210" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C210" s="11" t="s">
@@ -19049,7 +19043,7 @@
       <c r="A211" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B211" s="30" t="s">
+      <c r="B211" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C211" s="11" t="s">
@@ -19126,7 +19120,7 @@
       <c r="A212" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C212" s="11" t="s">
@@ -19203,7 +19197,7 @@
       <c r="A213" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B213" s="30" t="s">
+      <c r="B213" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C213" s="11" t="s">
@@ -19280,7 +19274,7 @@
       <c r="A214" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B214" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C214" s="11" t="s">
@@ -19357,7 +19351,7 @@
       <c r="A215" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C215" s="11" t="s">
@@ -19434,7 +19428,7 @@
       <c r="A216" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B216" s="30" t="s">
+      <c r="B216" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C216" s="11" t="s">
@@ -19511,7 +19505,7 @@
       <c r="A217" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B217" s="30" t="s">
+      <c r="B217" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C217" s="11" t="s">
@@ -19588,7 +19582,7 @@
       <c r="A218" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B218" s="30" t="s">
+      <c r="B218" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C218" s="11" t="s">
@@ -19665,7 +19659,7 @@
       <c r="A219" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B219" s="30" t="s">
+      <c r="B219" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C219" s="11" t="s">
@@ -19742,7 +19736,7 @@
       <c r="A220" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B220" s="30" t="s">
+      <c r="B220" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C220" s="11" t="s">
@@ -19819,7 +19813,7 @@
       <c r="A221" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C221" s="11" t="s">
@@ -19896,7 +19890,7 @@
       <c r="A222" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B222" s="30" t="s">
+      <c r="B222" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C222" s="11" t="s">
@@ -19973,7 +19967,7 @@
       <c r="A223" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B223" s="30" t="s">
+      <c r="B223" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C223" s="11" t="s">
@@ -20050,7 +20044,7 @@
       <c r="A224" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B224" s="30" t="s">
+      <c r="B224" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C224" s="11" t="s">
@@ -20127,7 +20121,7 @@
       <c r="A225" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B225" s="30" t="s">
+      <c r="B225" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C225" s="11" t="s">
@@ -20204,7 +20198,7 @@
       <c r="A226" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C226" s="11" t="s">
@@ -20281,7 +20275,7 @@
       <c r="A227" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B227" s="30" t="s">
+      <c r="B227" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C227" s="11" t="s">
@@ -20358,7 +20352,7 @@
       <c r="A228" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B228" s="30" t="s">
+      <c r="B228" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C228" s="11" t="s">
@@ -20435,7 +20429,7 @@
       <c r="A229" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B229" s="30" t="s">
+      <c r="B229" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C229" s="11" t="s">
@@ -20512,7 +20506,7 @@
       <c r="A230" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B230" s="30" t="s">
+      <c r="B230" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C230" s="11" t="s">
@@ -20589,7 +20583,7 @@
       <c r="A231" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C231" s="11" t="s">
@@ -20666,7 +20660,7 @@
       <c r="A232" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B232" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C232" s="11" t="s">
@@ -20743,7 +20737,7 @@
       <c r="A233" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B233" s="30" t="s">
+      <c r="B233" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C233" s="11" t="s">
@@ -20820,7 +20814,7 @@
       <c r="A234" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B234" s="30" t="s">
+      <c r="B234" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C234" s="11" t="s">
@@ -20897,7 +20891,7 @@
       <c r="A235" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C235" s="11" t="s">
@@ -20974,7 +20968,7 @@
       <c r="A236" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B236" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C236" s="11" t="s">
@@ -21051,7 +21045,7 @@
       <c r="A237" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B237" s="30" t="s">
+      <c r="B237" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C237" s="11" t="s">
@@ -21128,7 +21122,7 @@
       <c r="A238" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B238" s="30" t="s">
+      <c r="B238" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C238" s="11" t="s">
@@ -21205,7 +21199,7 @@
       <c r="A239" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B239" s="30" t="s">
+      <c r="B239" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C239" s="11" t="s">
@@ -21282,7 +21276,7 @@
       <c r="A240" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B240" s="30" t="s">
+      <c r="B240" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C240" s="11" t="s">
@@ -21359,7 +21353,7 @@
       <c r="A241" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B241" s="30" t="s">
+      <c r="B241" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C241" s="11" t="s">
@@ -21436,7 +21430,7 @@
       <c r="A242" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B242" s="30" t="s">
+      <c r="B242" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C242" s="11" t="s">
@@ -21513,7 +21507,7 @@
       <c r="A243" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B243" s="30" t="s">
+      <c r="B243" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C243" s="11" t="s">
@@ -21590,7 +21584,7 @@
       <c r="A244" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B244" s="30" t="s">
+      <c r="B244" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C244" s="11" t="s">
@@ -21667,7 +21661,7 @@
       <c r="A245" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B245" s="30" t="s">
+      <c r="B245" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C245" s="11" t="s">
@@ -21744,7 +21738,7 @@
       <c r="A246" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C246" s="11" t="s">
@@ -21821,7 +21815,7 @@
       <c r="A247" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B247" s="30" t="s">
+      <c r="B247" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C247" s="11" t="s">
@@ -21898,7 +21892,7 @@
       <c r="A248" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B248" s="30" t="s">
+      <c r="B248" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C248" s="11" t="s">
@@ -21975,7 +21969,7 @@
       <c r="A249" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B249" s="30" t="s">
+      <c r="B249" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C249" s="11" t="s">
@@ -22052,7 +22046,7 @@
       <c r="A250" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B250" s="30" t="s">
+      <c r="B250" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C250" s="11" t="s">
@@ -22129,7 +22123,7 @@
       <c r="A251" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B251" s="30" t="s">
+      <c r="B251" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C251" s="11" t="s">
@@ -22206,7 +22200,7 @@
       <c r="A252" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B252" s="30" t="s">
+      <c r="B252" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C252" s="11" t="s">
@@ -22283,7 +22277,7 @@
       <c r="A253" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C253" s="11" t="s">
@@ -22360,7 +22354,7 @@
       <c r="A254" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B254" s="30" t="s">
+      <c r="B254" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C254" s="11" t="s">
@@ -22437,7 +22431,7 @@
       <c r="A255" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B255" s="30" t="s">
+      <c r="B255" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C255" s="11" t="s">
@@ -22514,7 +22508,7 @@
       <c r="A256" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B256" s="30" t="s">
+      <c r="B256" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C256" s="11" t="s">
@@ -22591,7 +22585,7 @@
       <c r="A257" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B257" s="30" t="s">
+      <c r="B257" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C257" s="11" t="s">
@@ -22668,7 +22662,7 @@
       <c r="A258" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B258" s="30" t="s">
+      <c r="B258" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C258" s="11" t="s">
@@ -22745,7 +22739,7 @@
       <c r="A259" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B259" s="30" t="s">
+      <c r="B259" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C259" s="11" t="s">
@@ -22822,7 +22816,7 @@
       <c r="A260" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B260" s="30" t="s">
+      <c r="B260" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C260" s="11" t="s">
@@ -22899,7 +22893,7 @@
       <c r="A261" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B261" s="30" t="s">
+      <c r="B261" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C261" s="11" t="s">
@@ -22976,7 +22970,7 @@
       <c r="A262" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B262" s="30" t="s">
+      <c r="B262" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C262" s="11" t="s">
@@ -23053,7 +23047,7 @@
       <c r="A263" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B263" s="30" t="s">
+      <c r="B263" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C263" s="11" t="s">
@@ -23130,7 +23124,7 @@
       <c r="A264" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B264" s="30" t="s">
+      <c r="B264" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C264" s="11" t="s">
@@ -23207,7 +23201,7 @@
       <c r="A265" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B265" s="30" t="s">
+      <c r="B265" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C265" s="11" t="s">
@@ -23284,7 +23278,7 @@
       <c r="A266" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C266" s="11" t="s">
@@ -23361,7 +23355,7 @@
       <c r="A267" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B267" s="30" t="s">
+      <c r="B267" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C267" s="11" t="s">
@@ -23438,7 +23432,7 @@
       <c r="A268" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B268" s="30" t="s">
+      <c r="B268" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C268" s="11" t="s">
@@ -23515,7 +23509,7 @@
       <c r="A269" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C269" s="11" t="s">
@@ -23592,7 +23586,7 @@
       <c r="A270" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B270" s="30" t="s">
+      <c r="B270" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C270" s="11" t="s">
@@ -23669,7 +23663,7 @@
       <c r="A271" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B271" s="30" t="s">
+      <c r="B271" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C271" s="11" t="s">
@@ -23746,7 +23740,7 @@
       <c r="A272" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B272" s="30" t="s">
+      <c r="B272" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C272" s="11" t="s">
@@ -23823,7 +23817,7 @@
       <c r="A273" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B273" s="30" t="s">
+      <c r="B273" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C273" s="11" t="s">
@@ -23900,7 +23894,7 @@
       <c r="A274" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B274" s="30" t="s">
+      <c r="B274" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C274" s="11" t="s">
@@ -23977,7 +23971,7 @@
       <c r="A275" t="s">
         <v>310</v>
       </c>
-      <c r="B275" s="30" t="s">
+      <c r="B275" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C275" s="11" t="s">
@@ -24054,7 +24048,7 @@
       <c r="A276" t="s">
         <v>311</v>
       </c>
-      <c r="B276" s="30" t="s">
+      <c r="B276" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C276" s="11" t="s">
@@ -24131,7 +24125,7 @@
       <c r="A277" t="s">
         <v>312</v>
       </c>
-      <c r="B277" s="30" t="s">
+      <c r="B277" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C277" s="11" t="s">
@@ -24208,7 +24202,7 @@
       <c r="A278" t="s">
         <v>313</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C278" s="11" t="s">
@@ -24285,7 +24279,7 @@
       <c r="A279" t="s">
         <v>314</v>
       </c>
-      <c r="B279" s="30" t="s">
+      <c r="B279" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C279" s="11" t="s">
@@ -24362,7 +24356,7 @@
       <c r="A280" t="s">
         <v>315</v>
       </c>
-      <c r="B280" s="30" t="s">
+      <c r="B280" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C280" s="11" t="s">
@@ -24439,7 +24433,7 @@
       <c r="A281" t="s">
         <v>316</v>
       </c>
-      <c r="B281" s="30" t="s">
+      <c r="B281" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C281" s="11" t="s">
@@ -24516,7 +24510,7 @@
       <c r="A282" t="s">
         <v>317</v>
       </c>
-      <c r="B282" s="30" t="s">
+      <c r="B282" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C282" s="11" t="s">
@@ -24593,7 +24587,7 @@
       <c r="A283" t="s">
         <v>318</v>
       </c>
-      <c r="B283" s="30" t="s">
+      <c r="B283" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C283" s="11" t="s">
@@ -24670,7 +24664,7 @@
       <c r="A284" t="s">
         <v>319</v>
       </c>
-      <c r="B284" s="30" t="s">
+      <c r="B284" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C284" s="11" t="s">
@@ -24747,7 +24741,7 @@
       <c r="A285" t="s">
         <v>320</v>
       </c>
-      <c r="B285" s="30" t="s">
+      <c r="B285" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C285" s="11" t="s">
@@ -24824,7 +24818,7 @@
       <c r="A286" t="s">
         <v>321</v>
       </c>
-      <c r="B286" s="30" t="s">
+      <c r="B286" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C286" s="11" t="s">
@@ -24901,7 +24895,7 @@
       <c r="A287" t="s">
         <v>322</v>
       </c>
-      <c r="B287" s="30" t="s">
+      <c r="B287" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C287" s="11" t="s">
@@ -24978,7 +24972,7 @@
       <c r="A288" t="s">
         <v>323</v>
       </c>
-      <c r="B288" s="30" t="s">
+      <c r="B288" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C288" s="11" t="s">
@@ -25055,7 +25049,7 @@
       <c r="A289" t="s">
         <v>324</v>
       </c>
-      <c r="B289" s="30" t="s">
+      <c r="B289" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C289" s="11" t="s">
@@ -25132,7 +25126,7 @@
       <c r="A290" t="s">
         <v>325</v>
       </c>
-      <c r="B290" s="30" t="s">
+      <c r="B290" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C290" s="11" t="s">
@@ -25209,7 +25203,7 @@
       <c r="A291" t="s">
         <v>326</v>
       </c>
-      <c r="B291" s="30" t="s">
+      <c r="B291" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C291" s="11" t="s">
@@ -25286,7 +25280,7 @@
       <c r="A292" t="s">
         <v>327</v>
       </c>
-      <c r="B292" s="30" t="s">
+      <c r="B292" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C292" s="11" t="s">
@@ -25363,7 +25357,7 @@
       <c r="A293" t="s">
         <v>328</v>
       </c>
-      <c r="B293" s="30" t="s">
+      <c r="B293" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C293" s="11" t="s">
@@ -25440,7 +25434,7 @@
       <c r="A294" t="s">
         <v>329</v>
       </c>
-      <c r="B294" s="30" t="s">
+      <c r="B294" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C294" s="11" t="s">
@@ -25517,7 +25511,7 @@
       <c r="A295" t="s">
         <v>330</v>
       </c>
-      <c r="B295" s="30" t="s">
+      <c r="B295" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C295" s="11" t="s">
@@ -25594,7 +25588,7 @@
       <c r="A296" t="s">
         <v>331</v>
       </c>
-      <c r="B296" s="30" t="s">
+      <c r="B296" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C296" s="11" t="s">
@@ -25671,7 +25665,7 @@
       <c r="A297" t="s">
         <v>332</v>
       </c>
-      <c r="B297" s="30" t="s">
+      <c r="B297" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C297" s="11" t="s">
@@ -25748,7 +25742,7 @@
       <c r="A298" t="s">
         <v>333</v>
       </c>
-      <c r="B298" s="30" t="s">
+      <c r="B298" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C298" s="11" t="s">
@@ -25825,7 +25819,7 @@
       <c r="A299" t="s">
         <v>334</v>
       </c>
-      <c r="B299" s="30" t="s">
+      <c r="B299" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C299" s="11" t="s">
@@ -25902,7 +25896,7 @@
       <c r="A300" t="s">
         <v>335</v>
       </c>
-      <c r="B300" s="30" t="s">
+      <c r="B300" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C300" s="11" t="s">
@@ -25979,7 +25973,7 @@
       <c r="A301" t="s">
         <v>336</v>
       </c>
-      <c r="B301" s="30" t="s">
+      <c r="B301" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C301" s="11" t="s">
@@ -26056,7 +26050,7 @@
       <c r="A302" t="s">
         <v>337</v>
       </c>
-      <c r="B302" s="30" t="s">
+      <c r="B302" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C302" s="11" t="s">
@@ -26133,7 +26127,7 @@
       <c r="A303" t="s">
         <v>338</v>
       </c>
-      <c r="B303" s="30" t="s">
+      <c r="B303" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C303" s="11" t="s">
@@ -26210,7 +26204,7 @@
       <c r="A304" t="s">
         <v>339</v>
       </c>
-      <c r="B304" s="30" t="s">
+      <c r="B304" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C304" s="11" t="s">
@@ -26287,7 +26281,7 @@
       <c r="A305" t="s">
         <v>340</v>
       </c>
-      <c r="B305" s="30" t="s">
+      <c r="B305" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C305" s="11" t="s">
@@ -26364,7 +26358,7 @@
       <c r="A306" t="s">
         <v>341</v>
       </c>
-      <c r="B306" s="30" t="s">
+      <c r="B306" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C306" s="11" t="s">
@@ -26441,7 +26435,7 @@
       <c r="A307" t="s">
         <v>342</v>
       </c>
-      <c r="B307" s="30" t="s">
+      <c r="B307" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C307" s="11" t="s">
@@ -26518,7 +26512,7 @@
       <c r="A308" t="s">
         <v>343</v>
       </c>
-      <c r="B308" s="30" t="s">
+      <c r="B308" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C308" s="11" t="s">
@@ -26595,7 +26589,7 @@
       <c r="A309" t="s">
         <v>344</v>
       </c>
-      <c r="B309" s="30" t="s">
+      <c r="B309" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C309" s="11" t="s">
@@ -26672,7 +26666,7 @@
       <c r="A310" t="s">
         <v>345</v>
       </c>
-      <c r="B310" s="30" t="s">
+      <c r="B310" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C310" s="11" t="s">
@@ -26749,7 +26743,7 @@
       <c r="A311" t="s">
         <v>346</v>
       </c>
-      <c r="B311" s="30" t="s">
+      <c r="B311" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C311" s="11" t="s">
@@ -26826,7 +26820,7 @@
       <c r="A312" t="s">
         <v>347</v>
       </c>
-      <c r="B312" s="30" t="s">
+      <c r="B312" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C312" s="11" t="s">
@@ -26903,7 +26897,7 @@
       <c r="A313" t="s">
         <v>348</v>
       </c>
-      <c r="B313" s="30" t="s">
+      <c r="B313" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C313" s="11" t="s">
@@ -26980,7 +26974,7 @@
       <c r="A314" t="s">
         <v>349</v>
       </c>
-      <c r="B314" s="30" t="s">
+      <c r="B314" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C314" s="11" t="s">
@@ -27057,7 +27051,7 @@
       <c r="A315" t="s">
         <v>350</v>
       </c>
-      <c r="B315" s="30" t="s">
+      <c r="B315" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C315" s="11" t="s">
@@ -27134,7 +27128,7 @@
       <c r="A316" t="s">
         <v>351</v>
       </c>
-      <c r="B316" s="30" t="s">
+      <c r="B316" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C316" s="11" t="s">
@@ -27211,7 +27205,7 @@
       <c r="A317" t="s">
         <v>352</v>
       </c>
-      <c r="B317" s="30" t="s">
+      <c r="B317" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C317" s="11" t="s">
@@ -27288,7 +27282,7 @@
       <c r="A318" t="s">
         <v>353</v>
       </c>
-      <c r="B318" s="30" t="s">
+      <c r="B318" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C318" s="11" t="s">
@@ -27365,7 +27359,7 @@
       <c r="A319" t="s">
         <v>354</v>
       </c>
-      <c r="B319" s="30" t="s">
+      <c r="B319" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C319" s="11" t="s">
@@ -27442,7 +27436,7 @@
       <c r="A320" t="s">
         <v>355</v>
       </c>
-      <c r="B320" s="30" t="s">
+      <c r="B320" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C320" s="11" t="s">
@@ -27519,7 +27513,7 @@
       <c r="A321" t="s">
         <v>356</v>
       </c>
-      <c r="B321" s="30" t="s">
+      <c r="B321" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C321" s="11" t="s">
@@ -27596,7 +27590,7 @@
       <c r="A322" t="s">
         <v>357</v>
       </c>
-      <c r="B322" s="30" t="s">
+      <c r="B322" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C322" s="11" t="s">
@@ -27673,7 +27667,7 @@
       <c r="A323" t="s">
         <v>358</v>
       </c>
-      <c r="B323" s="30" t="s">
+      <c r="B323" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C323" s="11" t="s">
@@ -27750,7 +27744,7 @@
       <c r="A324" t="s">
         <v>359</v>
       </c>
-      <c r="B324" s="30" t="s">
+      <c r="B324" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C324" s="11" t="s">
@@ -27827,7 +27821,7 @@
       <c r="A325" t="s">
         <v>360</v>
       </c>
-      <c r="B325" s="30" t="s">
+      <c r="B325" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C325" s="11" t="s">
@@ -27904,7 +27898,7 @@
       <c r="A326" t="s">
         <v>361</v>
       </c>
-      <c r="B326" s="30" t="s">
+      <c r="B326" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C326" s="11" t="s">
@@ -27981,7 +27975,7 @@
       <c r="A327" t="s">
         <v>362</v>
       </c>
-      <c r="B327" s="30" t="s">
+      <c r="B327" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C327" s="11" t="s">
@@ -28058,7 +28052,7 @@
       <c r="A328" t="s">
         <v>363</v>
       </c>
-      <c r="B328" s="30" t="s">
+      <c r="B328" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C328" s="11" t="s">
@@ -28135,7 +28129,7 @@
       <c r="A329" t="s">
         <v>364</v>
       </c>
-      <c r="B329" s="30" t="s">
+      <c r="B329" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C329" s="11" t="s">
@@ -28212,7 +28206,7 @@
       <c r="A330" t="s">
         <v>365</v>
       </c>
-      <c r="B330" s="30" t="s">
+      <c r="B330" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C330" s="11" t="s">
@@ -28289,7 +28283,7 @@
       <c r="A331" t="s">
         <v>366</v>
       </c>
-      <c r="B331" s="30" t="s">
+      <c r="B331" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C331" s="11" t="s">
@@ -28366,7 +28360,7 @@
       <c r="A332" t="s">
         <v>367</v>
       </c>
-      <c r="B332" s="30" t="s">
+      <c r="B332" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C332" s="11" t="s">
@@ -28443,7 +28437,7 @@
       <c r="A333" t="s">
         <v>368</v>
       </c>
-      <c r="B333" s="30" t="s">
+      <c r="B333" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C333" s="11" t="s">
@@ -28520,7 +28514,7 @@
       <c r="A334" t="s">
         <v>369</v>
       </c>
-      <c r="B334" s="30" t="s">
+      <c r="B334" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C334" s="11" t="s">
@@ -28597,7 +28591,7 @@
       <c r="A335" t="s">
         <v>370</v>
       </c>
-      <c r="B335" s="30" t="s">
+      <c r="B335" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C335" s="11" t="s">
@@ -28674,7 +28668,7 @@
       <c r="A336" t="s">
         <v>371</v>
       </c>
-      <c r="B336" s="30" t="s">
+      <c r="B336" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C336" s="11" t="s">
@@ -28751,7 +28745,7 @@
       <c r="A337" t="s">
         <v>372</v>
       </c>
-      <c r="B337" s="30" t="s">
+      <c r="B337" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C337" s="11" t="s">
@@ -28828,7 +28822,7 @@
       <c r="A338" t="s">
         <v>373</v>
       </c>
-      <c r="B338" s="30" t="s">
+      <c r="B338" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C338" s="11" t="s">
@@ -28905,7 +28899,7 @@
       <c r="A339" t="s">
         <v>374</v>
       </c>
-      <c r="B339" s="30" t="s">
+      <c r="B339" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C339" s="11" t="s">
@@ -28982,7 +28976,7 @@
       <c r="A340" t="s">
         <v>375</v>
       </c>
-      <c r="B340" s="30" t="s">
+      <c r="B340" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C340" s="11" t="s">
@@ -29059,7 +29053,7 @@
       <c r="A341" t="s">
         <v>376</v>
       </c>
-      <c r="B341" s="30" t="s">
+      <c r="B341" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C341" s="11" t="s">
@@ -29136,7 +29130,7 @@
       <c r="A342" t="s">
         <v>377</v>
       </c>
-      <c r="B342" s="30" t="s">
+      <c r="B342" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C342" s="11" t="s">
@@ -29213,7 +29207,7 @@
       <c r="A343" t="s">
         <v>378</v>
       </c>
-      <c r="B343" s="30" t="s">
+      <c r="B343" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C343" s="11" t="s">
@@ -29290,7 +29284,7 @@
       <c r="A344" t="s">
         <v>379</v>
       </c>
-      <c r="B344" s="30" t="s">
+      <c r="B344" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C344" s="11" t="s">
@@ -29367,7 +29361,7 @@
       <c r="A345" t="s">
         <v>380</v>
       </c>
-      <c r="B345" s="30" t="s">
+      <c r="B345" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C345" s="11" t="s">
@@ -29444,7 +29438,7 @@
       <c r="A346" t="s">
         <v>381</v>
       </c>
-      <c r="B346" s="30" t="s">
+      <c r="B346" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C346" s="11" t="s">
@@ -29521,7 +29515,7 @@
       <c r="A347" t="s">
         <v>382</v>
       </c>
-      <c r="B347" s="30" t="s">
+      <c r="B347" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C347" s="11" t="s">
@@ -29598,7 +29592,7 @@
       <c r="A348" t="s">
         <v>383</v>
       </c>
-      <c r="B348" s="30" t="s">
+      <c r="B348" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C348" s="11" t="s">
@@ -29675,7 +29669,7 @@
       <c r="A349" t="s">
         <v>384</v>
       </c>
-      <c r="B349" s="30" t="s">
+      <c r="B349" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C349" s="11" t="s">
@@ -29752,7 +29746,7 @@
       <c r="A350" t="s">
         <v>385</v>
       </c>
-      <c r="B350" s="30" t="s">
+      <c r="B350" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C350" s="11" t="s">
@@ -29829,7 +29823,7 @@
       <c r="A351" t="s">
         <v>386</v>
       </c>
-      <c r="B351" s="30" t="s">
+      <c r="B351" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C351" s="11" t="s">
@@ -29906,7 +29900,7 @@
       <c r="A352" t="s">
         <v>387</v>
       </c>
-      <c r="B352" s="30" t="s">
+      <c r="B352" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C352" s="11" t="s">
@@ -29983,7 +29977,7 @@
       <c r="A353" t="s">
         <v>388</v>
       </c>
-      <c r="B353" s="30" t="s">
+      <c r="B353" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C353" s="11" t="s">
@@ -30060,7 +30054,7 @@
       <c r="A354" t="s">
         <v>389</v>
       </c>
-      <c r="B354" s="30" t="s">
+      <c r="B354" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C354" s="11" t="s">
@@ -30137,7 +30131,7 @@
       <c r="A355" t="s">
         <v>390</v>
       </c>
-      <c r="B355" s="30" t="s">
+      <c r="B355" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C355" s="11" t="s">
@@ -30214,7 +30208,7 @@
       <c r="A356" t="s">
         <v>391</v>
       </c>
-      <c r="B356" s="30" t="s">
+      <c r="B356" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C356" s="11" t="s">
@@ -30291,7 +30285,7 @@
       <c r="A357" t="s">
         <v>392</v>
       </c>
-      <c r="B357" s="30" t="s">
+      <c r="B357" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C357" s="11" t="s">
@@ -30368,7 +30362,7 @@
       <c r="A358" t="s">
         <v>393</v>
       </c>
-      <c r="B358" s="30" t="s">
+      <c r="B358" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C358" s="11" t="s">
@@ -30445,7 +30439,7 @@
       <c r="A359" t="s">
         <v>394</v>
       </c>
-      <c r="B359" s="30" t="s">
+      <c r="B359" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C359" s="11" t="s">
@@ -30522,7 +30516,7 @@
       <c r="A360" t="s">
         <v>395</v>
       </c>
-      <c r="B360" s="30" t="s">
+      <c r="B360" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C360" s="11" t="s">
@@ -30599,7 +30593,7 @@
       <c r="A361" t="s">
         <v>396</v>
       </c>
-      <c r="B361" s="30" t="s">
+      <c r="B361" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C361" s="11" t="s">
@@ -30676,7 +30670,7 @@
       <c r="A362" t="s">
         <v>397</v>
       </c>
-      <c r="B362" s="30" t="s">
+      <c r="B362" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C362" s="11" t="s">
@@ -30753,7 +30747,7 @@
       <c r="A363" t="s">
         <v>398</v>
       </c>
-      <c r="B363" s="30" t="s">
+      <c r="B363" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C363" s="11" t="s">
@@ -30830,7 +30824,7 @@
       <c r="A364" t="s">
         <v>399</v>
       </c>
-      <c r="B364" s="30" t="s">
+      <c r="B364" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C364" s="11" t="s">
@@ -30907,7 +30901,7 @@
       <c r="A365" t="s">
         <v>400</v>
       </c>
-      <c r="B365" s="30" t="s">
+      <c r="B365" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C365" s="11" t="s">
@@ -30984,7 +30978,7 @@
       <c r="A366" t="s">
         <v>401</v>
       </c>
-      <c r="B366" s="30" t="s">
+      <c r="B366" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C366" s="11" t="s">
@@ -31061,7 +31055,7 @@
       <c r="A367" t="s">
         <v>402</v>
       </c>
-      <c r="B367" s="30" t="s">
+      <c r="B367" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C367" s="11" t="s">
@@ -31138,7 +31132,7 @@
       <c r="A368" t="s">
         <v>403</v>
       </c>
-      <c r="B368" s="30" t="s">
+      <c r="B368" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C368" s="11" t="s">
@@ -31215,7 +31209,7 @@
       <c r="A369" t="s">
         <v>404</v>
       </c>
-      <c r="B369" s="30" t="s">
+      <c r="B369" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C369" s="11" t="s">
@@ -31292,7 +31286,7 @@
       <c r="A370" t="s">
         <v>405</v>
       </c>
-      <c r="B370" s="30" t="s">
+      <c r="B370" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C370" s="11" t="s">
@@ -31369,7 +31363,7 @@
       <c r="A371" t="s">
         <v>406</v>
       </c>
-      <c r="B371" s="30" t="s">
+      <c r="B371" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C371" s="11" t="s">
@@ -31446,7 +31440,7 @@
       <c r="A372" t="s">
         <v>407</v>
       </c>
-      <c r="B372" s="30" t="s">
+      <c r="B372" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C372" s="11" t="s">
@@ -31523,7 +31517,7 @@
       <c r="A373" t="s">
         <v>408</v>
       </c>
-      <c r="B373" s="30" t="s">
+      <c r="B373" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C373" s="11" t="s">
@@ -31600,7 +31594,7 @@
       <c r="A374" t="s">
         <v>409</v>
       </c>
-      <c r="B374" s="30" t="s">
+      <c r="B374" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C374" s="11" t="s">
@@ -31677,7 +31671,7 @@
       <c r="A375" t="s">
         <v>410</v>
       </c>
-      <c r="B375" s="30" t="s">
+      <c r="B375" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C375" s="11" t="s">
@@ -31754,7 +31748,7 @@
       <c r="A376" t="s">
         <v>411</v>
       </c>
-      <c r="B376" s="30" t="s">
+      <c r="B376" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C376" s="11" t="s">
@@ -31831,7 +31825,7 @@
       <c r="A377" t="s">
         <v>412</v>
       </c>
-      <c r="B377" s="30" t="s">
+      <c r="B377" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C377" s="11" t="s">
@@ -31908,7 +31902,7 @@
       <c r="A378" t="s">
         <v>413</v>
       </c>
-      <c r="B378" s="30" t="s">
+      <c r="B378" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C378" s="11" t="s">
@@ -31985,7 +31979,7 @@
       <c r="A379" t="s">
         <v>414</v>
       </c>
-      <c r="B379" s="30" t="s">
+      <c r="B379" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C379" s="11" t="s">
@@ -32062,7 +32056,7 @@
       <c r="A380" t="s">
         <v>415</v>
       </c>
-      <c r="B380" s="30" t="s">
+      <c r="B380" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C380" s="11" t="s">
@@ -32139,7 +32133,7 @@
       <c r="A381" t="s">
         <v>416</v>
       </c>
-      <c r="B381" s="30" t="s">
+      <c r="B381" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C381" s="11" t="s">
@@ -32216,7 +32210,7 @@
       <c r="A382" t="s">
         <v>417</v>
       </c>
-      <c r="B382" s="30" t="s">
+      <c r="B382" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C382" s="11" t="s">
@@ -32293,7 +32287,7 @@
       <c r="A383" t="s">
         <v>418</v>
       </c>
-      <c r="B383" s="30" t="s">
+      <c r="B383" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C383" s="11" t="s">
@@ -32370,7 +32364,7 @@
       <c r="A384" t="s">
         <v>419</v>
       </c>
-      <c r="B384" s="30" t="s">
+      <c r="B384" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C384" s="11" t="s">
@@ -32447,7 +32441,7 @@
       <c r="A385" t="s">
         <v>420</v>
       </c>
-      <c r="B385" s="30" t="s">
+      <c r="B385" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C385" s="11" t="s">
@@ -32524,7 +32518,7 @@
       <c r="A386" t="s">
         <v>421</v>
       </c>
-      <c r="B386" s="30" t="s">
+      <c r="B386" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C386" s="11" t="s">
@@ -32601,7 +32595,7 @@
       <c r="A387" t="s">
         <v>422</v>
       </c>
-      <c r="B387" s="30" t="s">
+      <c r="B387" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C387" s="11" t="s">
@@ -32678,7 +32672,7 @@
       <c r="A388" t="s">
         <v>423</v>
       </c>
-      <c r="B388" s="30" t="s">
+      <c r="B388" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C388" s="11" t="s">
@@ -32755,7 +32749,7 @@
       <c r="A389" t="s">
         <v>424</v>
       </c>
-      <c r="B389" s="30" t="s">
+      <c r="B389" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C389" s="11" t="s">
@@ -32832,7 +32826,7 @@
       <c r="A390" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B390" s="30" t="s">
+      <c r="B390" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C390" s="11" t="s">
@@ -32909,7 +32903,7 @@
       <c r="A391" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B391" s="30" t="s">
+      <c r="B391" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C391" s="11" t="s">
@@ -32986,7 +32980,7 @@
       <c r="A392" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B392" s="30" t="s">
+      <c r="B392" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C392" s="11" t="s">
@@ -33063,7 +33057,7 @@
       <c r="A393" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B393" s="30" t="s">
+      <c r="B393" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C393" s="11" t="s">
@@ -33140,7 +33134,7 @@
       <c r="A394" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B394" s="30" t="s">
+      <c r="B394" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C394" s="11" t="s">
@@ -33217,7 +33211,7 @@
       <c r="A395" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B395" s="30" t="s">
+      <c r="B395" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C395" s="11" t="s">
@@ -33294,7 +33288,7 @@
       <c r="A396" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B396" s="30" t="s">
+      <c r="B396" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C396" s="11" t="s">
@@ -33371,7 +33365,7 @@
       <c r="A397" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B397" s="30" t="s">
+      <c r="B397" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C397" s="11" t="s">
@@ -33448,7 +33442,7 @@
       <c r="A398" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B398" s="30" t="s">
+      <c r="B398" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C398" s="11" t="s">
@@ -33525,7 +33519,7 @@
       <c r="A399" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B399" s="30" t="s">
+      <c r="B399" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C399" s="11" t="s">
@@ -33602,7 +33596,7 @@
       <c r="A400" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B400" s="30" t="s">
+      <c r="B400" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C400" s="11" t="s">
@@ -33679,7 +33673,7 @@
       <c r="A401" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B401" s="30" t="s">
+      <c r="B401" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C401" s="11" t="s">
@@ -33756,7 +33750,7 @@
       <c r="A402" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B402" s="30" t="s">
+      <c r="B402" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C402" s="11" t="s">
@@ -33833,7 +33827,7 @@
       <c r="A403" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B403" s="30" t="s">
+      <c r="B403" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C403" s="11" t="s">
@@ -33910,7 +33904,7 @@
       <c r="A404" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B404" s="30" t="s">
+      <c r="B404" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C404" s="11" t="s">
@@ -33987,7 +33981,7 @@
       <c r="A405" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B405" s="30" t="s">
+      <c r="B405" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C405" s="11" t="s">
@@ -34064,7 +34058,7 @@
       <c r="A406" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B406" s="30" t="s">
+      <c r="B406" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C406" s="11" t="s">
@@ -34141,7 +34135,7 @@
       <c r="A407" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B407" s="30" t="s">
+      <c r="B407" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C407" s="11" t="s">
@@ -34218,7 +34212,7 @@
       <c r="A408" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B408" s="30" t="s">
+      <c r="B408" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C408" s="11" t="s">
@@ -34295,7 +34289,7 @@
       <c r="A409" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B409" s="30" t="s">
+      <c r="B409" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C409" s="11" t="s">
@@ -34372,7 +34366,7 @@
       <c r="A410" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B410" s="30" t="s">
+      <c r="B410" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C410" s="11" t="s">
@@ -34449,7 +34443,7 @@
       <c r="A411" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B411" s="30" t="s">
+      <c r="B411" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C411" s="11" t="s">
@@ -34526,7 +34520,7 @@
       <c r="A412" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B412" s="30" t="s">
+      <c r="B412" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C412" s="11" t="s">
@@ -34603,7 +34597,7 @@
       <c r="A413" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B413" s="30" t="s">
+      <c r="B413" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C413" s="11" t="s">
@@ -34680,7 +34674,7 @@
       <c r="A414" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B414" s="30" t="s">
+      <c r="B414" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C414" s="11" t="s">
@@ -34757,7 +34751,7 @@
       <c r="A415" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B415" s="30" t="s">
+      <c r="B415" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C415" s="11" t="s">
@@ -34834,7 +34828,7 @@
       <c r="A416" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B416" s="30" t="s">
+      <c r="B416" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C416" s="11" t="s">
@@ -34911,7 +34905,7 @@
       <c r="A417" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B417" s="30" t="s">
+      <c r="B417" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C417" s="11" t="s">
@@ -34988,7 +34982,7 @@
       <c r="A418" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B418" s="30" t="s">
+      <c r="B418" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C418" s="11" t="s">
@@ -35065,7 +35059,7 @@
       <c r="A419" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="B419" s="30" t="s">
+      <c r="B419" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C419" s="11" t="s">
@@ -35142,7 +35136,7 @@
       <c r="A420" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B420" s="30" t="s">
+      <c r="B420" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C420" s="11" t="s">
@@ -35219,7 +35213,7 @@
       <c r="A421" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B421" s="30" t="s">
+      <c r="B421" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C421" s="11" t="s">
@@ -35296,7 +35290,7 @@
       <c r="A422" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B422" s="30" t="s">
+      <c r="B422" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C422" s="11" t="s">
@@ -35373,7 +35367,7 @@
       <c r="A423" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B423" s="30" t="s">
+      <c r="B423" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C423" s="11" t="s">
@@ -35450,7 +35444,7 @@
       <c r="A424" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B424" s="30" t="s">
+      <c r="B424" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C424" s="11" t="s">
@@ -35527,7 +35521,7 @@
       <c r="A425" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B425" s="30" t="s">
+      <c r="B425" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C425" s="11" t="s">
@@ -35604,7 +35598,7 @@
       <c r="A426" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B426" s="30" t="s">
+      <c r="B426" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C426" s="11" t="s">
@@ -35681,7 +35675,7 @@
       <c r="A427" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B427" s="30" t="s">
+      <c r="B427" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C427" s="11" t="s">
@@ -35758,7 +35752,7 @@
       <c r="A428" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="B428" s="30" t="s">
+      <c r="B428" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C428" s="11" t="s">
@@ -35835,7 +35829,7 @@
       <c r="A429" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B429" s="30" t="s">
+      <c r="B429" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C429" s="11" t="s">
@@ -35912,7 +35906,7 @@
       <c r="A430" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="B430" s="30" t="s">
+      <c r="B430" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C430" s="11" t="s">
@@ -35989,7 +35983,7 @@
       <c r="A431" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B431" s="30" t="s">
+      <c r="B431" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C431" s="11" t="s">
@@ -36066,7 +36060,7 @@
       <c r="A432" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B432" s="30" t="s">
+      <c r="B432" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C432" s="11" t="s">
@@ -36143,7 +36137,7 @@
       <c r="A433" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B433" s="30" t="s">
+      <c r="B433" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C433" s="11" t="s">
@@ -36220,7 +36214,7 @@
       <c r="A434" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B434" s="30" t="s">
+      <c r="B434" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C434" s="11" t="s">
@@ -36297,7 +36291,7 @@
       <c r="A435" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B435" s="30" t="s">
+      <c r="B435" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C435" s="11" t="s">
@@ -36374,7 +36368,7 @@
       <c r="A436" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B436" s="30" t="s">
+      <c r="B436" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C436" s="11" t="s">
@@ -36451,7 +36445,7 @@
       <c r="A437" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B437" s="30" t="s">
+      <c r="B437" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C437" s="11" t="s">
@@ -36528,7 +36522,7 @@
       <c r="A438" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B438" s="30" t="s">
+      <c r="B438" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C438" s="11" t="s">
@@ -36605,7 +36599,7 @@
       <c r="A439" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B439" s="30" t="s">
+      <c r="B439" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C439" s="11" t="s">
@@ -36682,7 +36676,7 @@
       <c r="A440" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B440" s="30" t="s">
+      <c r="B440" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C440" s="11" t="s">
@@ -36759,7 +36753,7 @@
       <c r="A441" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B441" s="30" t="s">
+      <c r="B441" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C441" s="11" t="s">
@@ -36836,7 +36830,7 @@
       <c r="A442" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B442" s="30" t="s">
+      <c r="B442" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C442" s="11" t="s">
@@ -36913,7 +36907,7 @@
       <c r="A443" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B443" s="30" t="s">
+      <c r="B443" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C443" s="11" t="s">
@@ -36990,7 +36984,7 @@
       <c r="A444" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B444" s="30" t="s">
+      <c r="B444" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C444" s="11" t="s">
@@ -37067,7 +37061,7 @@
       <c r="A445" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B445" s="30" t="s">
+      <c r="B445" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C445" s="11" t="s">
@@ -37144,7 +37138,7 @@
       <c r="A446" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B446" s="30" t="s">
+      <c r="B446" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C446" s="11" t="s">
@@ -37221,7 +37215,7 @@
       <c r="A447" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B447" s="30" t="s">
+      <c r="B447" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C447" s="11" t="s">
@@ -37298,7 +37292,7 @@
       <c r="A448" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="B448" s="30" t="s">
+      <c r="B448" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C448" s="11" t="s">
@@ -37375,7 +37369,7 @@
       <c r="A449" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B449" s="30" t="s">
+      <c r="B449" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C449" s="11" t="s">
@@ -37452,7 +37446,7 @@
       <c r="A450" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B450" s="30" t="s">
+      <c r="B450" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C450" s="11" t="s">
@@ -37529,7 +37523,7 @@
       <c r="A451" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B451" s="30" t="s">
+      <c r="B451" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C451" s="11" t="s">
@@ -37606,7 +37600,7 @@
       <c r="A452" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B452" s="30" t="s">
+      <c r="B452" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C452" s="11" t="s">
@@ -37683,7 +37677,7 @@
       <c r="A453" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B453" s="30" t="s">
+      <c r="B453" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C453" s="11" t="s">
@@ -37760,7 +37754,7 @@
       <c r="A454" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B454" s="30" t="s">
+      <c r="B454" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C454" s="11" t="s">
@@ -37837,7 +37831,7 @@
       <c r="A455" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B455" s="30" t="s">
+      <c r="B455" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C455" s="11" t="s">
@@ -37914,7 +37908,7 @@
       <c r="A456" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B456" s="30" t="s">
+      <c r="B456" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C456" s="11" t="s">
@@ -37991,7 +37985,7 @@
       <c r="A457" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B457" s="30" t="s">
+      <c r="B457" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C457" s="11" t="s">
@@ -38068,7 +38062,7 @@
       <c r="A458" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B458" s="30" t="s">
+      <c r="B458" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C458" s="11" t="s">
@@ -38145,7 +38139,7 @@
       <c r="A459" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B459" s="30" t="s">
+      <c r="B459" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C459" s="11" t="s">
@@ -38222,7 +38216,7 @@
       <c r="A460" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B460" s="30" t="s">
+      <c r="B460" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C460" s="11" t="s">
@@ -38299,7 +38293,7 @@
       <c r="A461" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B461" s="30" t="s">
+      <c r="B461" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C461" s="11" t="s">
@@ -38376,7 +38370,7 @@
       <c r="A462" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B462" s="30" t="s">
+      <c r="B462" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C462" s="11" t="s">
@@ -38453,7 +38447,7 @@
       <c r="A463" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B463" s="30" t="s">
+      <c r="B463" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C463" s="11" t="s">
@@ -38530,7 +38524,7 @@
       <c r="A464" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B464" s="30" t="s">
+      <c r="B464" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C464" s="11" t="s">
@@ -38607,7 +38601,7 @@
       <c r="A465" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B465" s="30" t="s">
+      <c r="B465" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C465" s="11" t="s">
@@ -38684,7 +38678,7 @@
       <c r="A466" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B466" s="30" t="s">
+      <c r="B466" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C466" s="11" t="s">
@@ -38761,7 +38755,7 @@
       <c r="A467" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B467" s="30" t="s">
+      <c r="B467" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C467" s="11" t="s">
@@ -38838,7 +38832,7 @@
       <c r="A468" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B468" s="30" t="s">
+      <c r="B468" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C468" s="11" t="s">
@@ -38915,7 +38909,7 @@
       <c r="A469" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="B469" s="30" t="s">
+      <c r="B469" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C469" s="11" t="s">
@@ -38992,7 +38986,7 @@
       <c r="A470" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="B470" s="30" t="s">
+      <c r="B470" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C470" s="11" t="s">
@@ -39069,7 +39063,7 @@
       <c r="A471" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B471" s="30" t="s">
+      <c r="B471" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C471" s="11" t="s">
@@ -39146,7 +39140,7 @@
       <c r="A472" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B472" s="30" t="s">
+      <c r="B472" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C472" s="11" t="s">
@@ -39223,7 +39217,7 @@
       <c r="A473" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B473" s="30" t="s">
+      <c r="B473" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C473" s="11" t="s">
@@ -39300,7 +39294,7 @@
       <c r="A474" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="B474" s="30" t="s">
+      <c r="B474" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C474" s="11" t="s">
@@ -39377,7 +39371,7 @@
       <c r="A475" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B475" s="30" t="s">
+      <c r="B475" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C475" s="11" t="s">
@@ -39454,7 +39448,7 @@
       <c r="A476" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B476" s="30" t="s">
+      <c r="B476" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C476" s="11" t="s">
@@ -39531,7 +39525,7 @@
       <c r="A477" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B477" s="30" t="s">
+      <c r="B477" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C477" s="11" t="s">
@@ -39608,7 +39602,7 @@
       <c r="A478" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B478" s="30" t="s">
+      <c r="B478" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C478" s="11" t="s">
@@ -39685,7 +39679,7 @@
       <c r="A479" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B479" s="30" t="s">
+      <c r="B479" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C479" s="11" t="s">
@@ -39762,7 +39756,7 @@
       <c r="A480" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B480" s="30" t="s">
+      <c r="B480" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C480" s="11" t="s">
@@ -39839,7 +39833,7 @@
       <c r="A481" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B481" s="30" t="s">
+      <c r="B481" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C481" s="11" t="s">
@@ -39916,7 +39910,7 @@
       <c r="A482" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B482" s="30" t="s">
+      <c r="B482" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C482" s="11" t="s">
@@ -39993,7 +39987,7 @@
       <c r="A483" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B483" s="30" t="s">
+      <c r="B483" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C483" s="11" t="s">
@@ -40070,7 +40064,7 @@
       <c r="A484" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B484" s="30" t="s">
+      <c r="B484" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C484" s="11" t="s">
@@ -40147,7 +40141,7 @@
       <c r="A485" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B485" s="30" t="s">
+      <c r="B485" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C485" s="11" t="s">
@@ -40224,7 +40218,7 @@
       <c r="A486" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B486" s="30" t="s">
+      <c r="B486" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C486" s="11" t="s">
@@ -40301,7 +40295,7 @@
       <c r="A487" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B487" s="30" t="s">
+      <c r="B487" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C487" s="11" t="s">
@@ -40378,7 +40372,7 @@
       <c r="A488" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B488" s="30" t="s">
+      <c r="B488" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C488" s="11" t="s">
@@ -40455,7 +40449,7 @@
       <c r="A489" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B489" s="30" t="s">
+      <c r="B489" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C489" s="11" t="s">
@@ -40532,7 +40526,7 @@
       <c r="A490" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B490" s="30" t="s">
+      <c r="B490" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C490" s="11" t="s">
@@ -40609,7 +40603,7 @@
       <c r="A491" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B491" s="30" t="s">
+      <c r="B491" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C491" s="11" t="s">
@@ -40686,7 +40680,7 @@
       <c r="A492" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B492" s="30" t="s">
+      <c r="B492" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C492" s="11" t="s">
@@ -40763,7 +40757,7 @@
       <c r="A493" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B493" s="30" t="s">
+      <c r="B493" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C493" s="11" t="s">
@@ -40840,7 +40834,7 @@
       <c r="A494" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="B494" s="30" t="s">
+      <c r="B494" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C494" s="11" t="s">
@@ -40917,7 +40911,7 @@
       <c r="A495" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B495" s="30" t="s">
+      <c r="B495" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C495" s="11" t="s">
@@ -40994,7 +40988,7 @@
       <c r="A496" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B496" s="30" t="s">
+      <c r="B496" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C496" s="11" t="s">
@@ -41071,7 +41065,7 @@
       <c r="A497" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B497" s="30" t="s">
+      <c r="B497" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C497" s="11" t="s">
@@ -41148,7 +41142,7 @@
       <c r="A498" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="B498" s="30" t="s">
+      <c r="B498" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C498" s="11" t="s">
@@ -41225,7 +41219,7 @@
       <c r="A499" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B499" s="30" t="s">
+      <c r="B499" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C499" s="11" t="s">
@@ -41302,7 +41296,7 @@
       <c r="A500" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B500" s="30" t="s">
+      <c r="B500" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C500" s="11" t="s">
@@ -41379,7 +41373,7 @@
       <c r="A501" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B501" s="30" t="s">
+      <c r="B501" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C501" s="11" t="s">
@@ -41456,7 +41450,7 @@
       <c r="A502" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="B502" s="30" t="s">
+      <c r="B502" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C502" s="11" t="s">
@@ -41533,7 +41527,7 @@
       <c r="A503" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B503" s="30" t="s">
+      <c r="B503" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C503" s="11" t="s">
@@ -41610,7 +41604,7 @@
       <c r="A504" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B504" s="30" t="s">
+      <c r="B504" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C504" s="11" t="s">
@@ -41687,7 +41681,7 @@
       <c r="A505" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="B505" s="30" t="s">
+      <c r="B505" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C505" s="11" t="s">
@@ -41764,7 +41758,7 @@
       <c r="A506" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B506" s="30" t="s">
+      <c r="B506" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C506" s="11" t="s">
@@ -41841,7 +41835,7 @@
       <c r="A507" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="B507" s="30" t="s">
+      <c r="B507" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C507" s="11" t="s">
@@ -41918,7 +41912,7 @@
       <c r="A508" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B508" s="30" t="s">
+      <c r="B508" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C508" s="11" t="s">
@@ -41995,7 +41989,7 @@
       <c r="A509" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B509" s="30" t="s">
+      <c r="B509" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C509" s="11" t="s">
@@ -42072,7 +42066,7 @@
       <c r="A510" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B510" s="30" t="s">
+      <c r="B510" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C510" s="11" t="s">
@@ -42149,7 +42143,7 @@
       <c r="A511" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B511" s="30" t="s">
+      <c r="B511" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C511" s="11" t="s">
@@ -42226,7 +42220,7 @@
       <c r="A512" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B512" s="30" t="s">
+      <c r="B512" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C512" s="11" t="s">
@@ -42303,7 +42297,7 @@
       <c r="A513" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B513" s="30" t="s">
+      <c r="B513" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C513" s="11" t="s">
@@ -42380,7 +42374,7 @@
       <c r="A514" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B514" s="30" t="s">
+      <c r="B514" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C514" s="11" t="s">
@@ -42457,7 +42451,7 @@
       <c r="A515" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B515" s="30" t="s">
+      <c r="B515" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C515" s="11" t="s">
@@ -42534,7 +42528,7 @@
       <c r="A516" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B516" s="30" t="s">
+      <c r="B516" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C516" s="11" t="s">
@@ -42611,7 +42605,7 @@
       <c r="A517" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="B517" s="30" t="s">
+      <c r="B517" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C517" s="11" t="s">
@@ -42688,7 +42682,7 @@
       <c r="A518" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B518" s="30" t="s">
+      <c r="B518" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C518" s="11" t="s">
@@ -42765,7 +42759,7 @@
       <c r="A519" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B519" s="30" t="s">
+      <c r="B519" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C519" s="11" t="s">
@@ -42842,7 +42836,7 @@
       <c r="A520" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B520" s="30" t="s">
+      <c r="B520" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C520" s="11" t="s">
@@ -42919,7 +42913,7 @@
       <c r="A521" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B521" s="30" t="s">
+      <c r="B521" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C521" s="11" t="s">
@@ -42996,7 +42990,7 @@
       <c r="A522" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B522" s="30" t="s">
+      <c r="B522" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C522" s="11" t="s">
@@ -43073,7 +43067,7 @@
       <c r="A523" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B523" s="30" t="s">
+      <c r="B523" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C523" s="11" t="s">
@@ -43150,7 +43144,7 @@
       <c r="A524" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B524" s="30" t="s">
+      <c r="B524" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C524" s="11" t="s">
@@ -43227,7 +43221,7 @@
       <c r="A525" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B525" s="30" t="s">
+      <c r="B525" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C525" s="11" t="s">
@@ -43304,7 +43298,7 @@
       <c r="A526" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B526" s="30" t="s">
+      <c r="B526" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C526" s="11" t="s">
@@ -43381,7 +43375,7 @@
       <c r="A527" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="B527" s="30" t="s">
+      <c r="B527" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C527" s="11" t="s">
@@ -43458,7 +43452,7 @@
       <c r="A528" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B528" s="30" t="s">
+      <c r="B528" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C528" s="11" t="s">
@@ -43535,7 +43529,7 @@
       <c r="A529" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B529" s="30" t="s">
+      <c r="B529" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C529" s="11" t="s">
@@ -43612,7 +43606,7 @@
       <c r="A530" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B530" s="30" t="s">
+      <c r="B530" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C530" s="11" t="s">
@@ -43689,7 +43683,7 @@
       <c r="A531" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B531" s="30" t="s">
+      <c r="B531" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C531" s="11" t="s">
@@ -43766,7 +43760,7 @@
       <c r="A532" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B532" s="30" t="s">
+      <c r="B532" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C532" s="11" t="s">
@@ -43843,7 +43837,7 @@
       <c r="A533" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="B533" s="30" t="s">
+      <c r="B533" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C533" s="11" t="s">
@@ -43945,7 +43939,7 @@
           <x14:formula1>
             <xm:f>Settings!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B534:B1048576</xm:sqref>
+          <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
